--- a/data/hotels_by_city/Houston/Houston_shard_115.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_115.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="258">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d223140-Reviews-Comfort_Suites-Houston_Texas.html</t>
   </si>
   <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Comfort-Suites-Houston-West-At-Clay-Road.h791616.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,662 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223140-r543479483-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>223140</t>
+  </si>
+  <si>
+    <t>543479483</t>
+  </si>
+  <si>
+    <t>11/26/2017</t>
+  </si>
+  <si>
+    <t>A Great Hotel</t>
+  </si>
+  <si>
+    <t>My husband and I stopped here for just one night on our way home from a cross-country trip. We had stayed in several similarly priced hotels on this trip, but this was by far the best one. This room was significantly larger than another Comfort Suites we had stayed at in California.
+I didn’t think we’d find such a spacious room for such a reasonable price.
+I am picky about the things I look for in a hotel. I can find very little to criticize at this hotel. The towels were large and abundant. There was lots of counter space in the bathroom. The bedding was comfortable and there was a variety of pillows to choose from. The lighting was more than adequate. There was a lot of storage space. It had a traditional closet. The furniture was attractive. The decor was nice. The desk clerks at check-in and check-out were friendly and helpful. 
+We had the free breakfast before we left and it was the best free breakfast we had on our trip. There were more hot choices than we had before—scrambled eggs, hash browns, sausage, and pancakes. The waffle machine was there, though we didn’t use it. Then there was the usual assortment of juices, cereals, yogurt, pastries, and fruit. Usually the free breakfasts are just adequate. This one was an abundant delight!
+I suppose I could have used a few more electrical outlets beside the bed, but...My husband and I stopped here for just one night on our way home from a cross-country trip. We had stayed in several similarly priced hotels on this trip, but this was by far the best one. This room was significantly larger than another Comfort Suites we had stayed at in California.I didn’t think we’d find such a spacious room for such a reasonable price.I am picky about the things I look for in a hotel. I can find very little to criticize at this hotel. The towels were large and abundant. There was lots of counter space in the bathroom. The bedding was comfortable and there was a variety of pillows to choose from. The lighting was more than adequate. There was a lot of storage space. It had a traditional closet. The furniture was attractive. The decor was nice. The desk clerks at check-in and check-out were friendly and helpful. We had the free breakfast before we left and it was the best free breakfast we had on our trip. There were more hot choices than we had before—scrambled eggs, hash browns, sausage, and pancakes. The waffle machine was there, though we didn’t use it. Then there was the usual assortment of juices, cereals, yogurt, pastries, and fruit. Usually the free breakfasts are just adequate. This one was an abundant delight!I suppose I could have used a few more electrical outlets beside the bed, but there were plenty on the desk area. Also, the towels were a bit stiff, but that is true of all hotels in this price range. Also, the view out our third floor window was the pool, a swamp, and the rear of the building next door. That didn’t bother me, as we were not there for the view.The location is close to the freeways, but in a business section of town. Most of the surrounding buildings were businesses and offices. I am sure this place will appeal to business travelers. It is not a resort, but the amenities are great!If I ever need to be in West Houston again, this WILL be my hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband and I stopped here for just one night on our way home from a cross-country trip. We had stayed in several similarly priced hotels on this trip, but this was by far the best one. This room was significantly larger than another Comfort Suites we had stayed at in California.
+I didn’t think we’d find such a spacious room for such a reasonable price.
+I am picky about the things I look for in a hotel. I can find very little to criticize at this hotel. The towels were large and abundant. There was lots of counter space in the bathroom. The bedding was comfortable and there was a variety of pillows to choose from. The lighting was more than adequate. There was a lot of storage space. It had a traditional closet. The furniture was attractive. The decor was nice. The desk clerks at check-in and check-out were friendly and helpful. 
+We had the free breakfast before we left and it was the best free breakfast we had on our trip. There were more hot choices than we had before—scrambled eggs, hash browns, sausage, and pancakes. The waffle machine was there, though we didn’t use it. Then there was the usual assortment of juices, cereals, yogurt, pastries, and fruit. Usually the free breakfasts are just adequate. This one was an abundant delight!
+I suppose I could have used a few more electrical outlets beside the bed, but...My husband and I stopped here for just one night on our way home from a cross-country trip. We had stayed in several similarly priced hotels on this trip, but this was by far the best one. This room was significantly larger than another Comfort Suites we had stayed at in California.I didn’t think we’d find such a spacious room for such a reasonable price.I am picky about the things I look for in a hotel. I can find very little to criticize at this hotel. The towels were large and abundant. There was lots of counter space in the bathroom. The bedding was comfortable and there was a variety of pillows to choose from. The lighting was more than adequate. There was a lot of storage space. It had a traditional closet. The furniture was attractive. The decor was nice. The desk clerks at check-in and check-out were friendly and helpful. We had the free breakfast before we left and it was the best free breakfast we had on our trip. There were more hot choices than we had before—scrambled eggs, hash browns, sausage, and pancakes. The waffle machine was there, though we didn’t use it. Then there was the usual assortment of juices, cereals, yogurt, pastries, and fruit. Usually the free breakfasts are just adequate. This one was an abundant delight!I suppose I could have used a few more electrical outlets beside the bed, but there were plenty on the desk area. Also, the towels were a bit stiff, but that is true of all hotels in this price range. Also, the view out our third floor window was the pool, a swamp, and the rear of the building next door. That didn’t bother me, as we were not there for the view.The location is close to the freeways, but in a business section of town. Most of the surrounding buildings were businesses and offices. I am sure this place will appeal to business travelers. It is not a resort, but the amenities are great!If I ever need to be in West Houston again, this WILL be my hotel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223140-r533331518-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>533331518</t>
+  </si>
+  <si>
+    <t>10/16/2017</t>
+  </si>
+  <si>
+    <t>Comfortable and well located</t>
+  </si>
+  <si>
+    <t>4 nights spent into this hotelComfortableNice welcomeSome noise during the first night but the manager handled itBreakfast is ok even if it's not awesomeFitness room as well30 minutes from downtown</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223140-r487948584-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>487948584</t>
+  </si>
+  <si>
+    <t>05/26/2017</t>
+  </si>
+  <si>
+    <t>Relocating to Houston</t>
+  </si>
+  <si>
+    <t>My stay was GREAT!!! I booked my room thru Hotwire and checking in was no problem. My room was clean and quiet, breakfast and the evening repass were simply delicious and I was comfortable. I'll definitely come back and refer.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Phil H, General Manager at Comfort Suites, responded to this reviewResponded September 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 27, 2017</t>
+  </si>
+  <si>
+    <t>My stay was GREAT!!! I booked my room thru Hotwire and checking in was no problem. My room was clean and quiet, breakfast and the evening repass were simply delicious and I was comfortable. I'll definitely come back and refer.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223140-r436364438-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>436364438</t>
+  </si>
+  <si>
+    <t>11/11/2016</t>
+  </si>
+  <si>
+    <t>Clean</t>
+  </si>
+  <si>
+    <t>This was a great hotel. The room was clean &amp; spacious. When I checked in, they had a complimentary happy hour that included Mexican food. The fact that it is very reasonably priced is a bonus. Some of the amenities include satellite tv, mini-fridge, &amp; a microwave. The only negative I can say is the bathroom was not well lit.  Ladies might find it difficult to do makeup. I would recommend this hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Phil H, General Manager at Comfort Suites, responded to this reviewResponded January 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 5, 2017</t>
+  </si>
+  <si>
+    <t>This was a great hotel. The room was clean &amp; spacious. When I checked in, they had a complimentary happy hour that included Mexican food. The fact that it is very reasonably priced is a bonus. Some of the amenities include satellite tv, mini-fridge, &amp; a microwave. The only negative I can say is the bathroom was not well lit.  Ladies might find it difficult to do makeup. I would recommend this hotel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223140-r430422591-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>430422591</t>
+  </si>
+  <si>
+    <t>10/21/2016</t>
+  </si>
+  <si>
+    <t>Amazing Value Hotel and Way Better Than the Price Would Suggest</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for 7 nights and then returned a few days later for a final night.  I normally choose hotels that are a little more expensive with a higher star rating but this hotel has made me change the way I will search for hotels in the future.
+I wasn't expecting a lot but I was amazed at what I got.  The hotel is situated in a business area close to the highway.  A car is essential because there are virtually no public transport links nearby that I could see.  There is a McDonalds and a Taco Cabana nearby as well as another fast food outlet selling chicken (can't remember the name) and a few gas stations within easy walking distance.
+Check in was straightforward and easy.  The lobby isn't too big and has the breakfast room attached.  Once into the corridors, I was pleasantly surprised by the quality feel of the place,  My room was even better.  It was a large room with the usual 2 double beds, a sitting area with a sofa, desk area, microwave, refrigerator and coffee machine. The bathroom was a reasonable size too with a full size bath.
+The room itself benefitted from quality furnishings and fittings and was clean and in great condition. The large flat screen TV worked well and the sound was able to be turned up to make it easy to hear, unlike some hotels who put...I stayed at this hotel for 7 nights and then returned a few days later for a final night.  I normally choose hotels that are a little more expensive with a higher star rating but this hotel has made me change the way I will search for hotels in the future.I wasn't expecting a lot but I was amazed at what I got.  The hotel is situated in a business area close to the highway.  A car is essential because there are virtually no public transport links nearby that I could see.  There is a McDonalds and a Taco Cabana nearby as well as another fast food outlet selling chicken (can't remember the name) and a few gas stations within easy walking distance.Check in was straightforward and easy.  The lobby isn't too big and has the breakfast room attached.  Once into the corridors, I was pleasantly surprised by the quality feel of the place,  My room was even better.  It was a large room with the usual 2 double beds, a sitting area with a sofa, desk area, microwave, refrigerator and coffee machine. The bathroom was a reasonable size too with a full size bath.The room itself benefitted from quality furnishings and fittings and was clean and in great condition. The large flat screen TV worked well and the sound was able to be turned up to make it easy to hear, unlike some hotels who put unreasonable restrictions on the TV volume. I was travelling with a friend who got an even bigger room with a much large sitting area for a similar price to what I paid.There is a small pool, hot tub and gym which were always empty and a guest laundry room too.  Just off the lobby was a small selection of snacks and refreshments available to purchase. Wi-Fi was free and worked well.The breakfast was free and was of good quality and reasonable variety for a free breakfast.The staff were great - all very helpful and friendly. On one occasion, I wanted to purchase a bottle of water and because the ice vending machine wasn't working, I wasn't charged for the water.  After a few days, I got to recognise the staff on the reception desk and they recognised me too. They were always very welcoming and acknowledged me.  In the day, the General Manager often manned the desk and he made an effort to talk to guests and ask them how their stay was.There was plenty of free parking at the hotel which was great because I had a rental car for the duration of my stay.Overall this was a great hotel with much more to offer than the price would suggest.  When I am next back in Houston, it will be my first choice.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for 7 nights and then returned a few days later for a final night.  I normally choose hotels that are a little more expensive with a higher star rating but this hotel has made me change the way I will search for hotels in the future.
+I wasn't expecting a lot but I was amazed at what I got.  The hotel is situated in a business area close to the highway.  A car is essential because there are virtually no public transport links nearby that I could see.  There is a McDonalds and a Taco Cabana nearby as well as another fast food outlet selling chicken (can't remember the name) and a few gas stations within easy walking distance.
+Check in was straightforward and easy.  The lobby isn't too big and has the breakfast room attached.  Once into the corridors, I was pleasantly surprised by the quality feel of the place,  My room was even better.  It was a large room with the usual 2 double beds, a sitting area with a sofa, desk area, microwave, refrigerator and coffee machine. The bathroom was a reasonable size too with a full size bath.
+The room itself benefitted from quality furnishings and fittings and was clean and in great condition. The large flat screen TV worked well and the sound was able to be turned up to make it easy to hear, unlike some hotels who put...I stayed at this hotel for 7 nights and then returned a few days later for a final night.  I normally choose hotels that are a little more expensive with a higher star rating but this hotel has made me change the way I will search for hotels in the future.I wasn't expecting a lot but I was amazed at what I got.  The hotel is situated in a business area close to the highway.  A car is essential because there are virtually no public transport links nearby that I could see.  There is a McDonalds and a Taco Cabana nearby as well as another fast food outlet selling chicken (can't remember the name) and a few gas stations within easy walking distance.Check in was straightforward and easy.  The lobby isn't too big and has the breakfast room attached.  Once into the corridors, I was pleasantly surprised by the quality feel of the place,  My room was even better.  It was a large room with the usual 2 double beds, a sitting area with a sofa, desk area, microwave, refrigerator and coffee machine. The bathroom was a reasonable size too with a full size bath.The room itself benefitted from quality furnishings and fittings and was clean and in great condition. The large flat screen TV worked well and the sound was able to be turned up to make it easy to hear, unlike some hotels who put unreasonable restrictions on the TV volume. I was travelling with a friend who got an even bigger room with a much large sitting area for a similar price to what I paid.There is a small pool, hot tub and gym which were always empty and a guest laundry room too.  Just off the lobby was a small selection of snacks and refreshments available to purchase. Wi-Fi was free and worked well.The breakfast was free and was of good quality and reasonable variety for a free breakfast.The staff were great - all very helpful and friendly. On one occasion, I wanted to purchase a bottle of water and because the ice vending machine wasn't working, I wasn't charged for the water.  After a few days, I got to recognise the staff on the reception desk and they recognised me too. They were always very welcoming and acknowledged me.  In the day, the General Manager often manned the desk and he made an effort to talk to guests and ask them how their stay was.There was plenty of free parking at the hotel which was great because I had a rental car for the duration of my stay.Overall this was a great hotel with much more to offer than the price would suggest.  When I am next back in Houston, it will be my first choice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223140-r428504648-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>428504648</t>
+  </si>
+  <si>
+    <t>10/16/2016</t>
+  </si>
+  <si>
+    <t>Comfort is right!</t>
+  </si>
+  <si>
+    <t>Friendly helpful staff.  Large clean rooms.  Very nice pool and hot tub.  Good breakfast choices but some of the hot food was cold--sausages and eggs were lukewarm on one day and nice and hot the next--so it's not consistently good.  Grabbed some ice cream from their snack area that was seriously freezer burnt.  The beds are very comfortable.  The rooms are quiet.  We were woken up at 3 am one night due to the smoke alarm.  It sounded only once and then turned off.  We still don't know why.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223140-r411650181-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>411650181</t>
+  </si>
+  <si>
+    <t>08/27/2016</t>
+  </si>
+  <si>
+    <t>Wonderful!</t>
+  </si>
+  <si>
+    <t>Stayed here for four nights on business and the experience was wonderful. The room had recently been renovated and was fresh and clean. The breakfast was wonderful, as were the happy hour entrees. I really liked how the General Manager came to talk during breakfast just to ensure everything was okay. The location was extremely convenient to my company's offices, and I experienced no road noise at night. Great stay and would definitely stay again!</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223140-r407641316-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>407641316</t>
+  </si>
+  <si>
+    <t>08/19/2016</t>
+  </si>
+  <si>
+    <t>Comfortable hotel for one night stay</t>
+  </si>
+  <si>
+    <t>Standard 3 star hotel with free wifi and outdoor pool. Rooms are large with king bed or two queen beds and sofa.A little bit understaffed- I called twice and was put on hold for 15 minutes each time and when I was at the hotel only one person in the front desk. I was not told check out time when we checked in, and as we were closing our bags at 11:10 am they called us and said you need to check out because check out is 11 am.I reserved with Hotwire under Energy corridor 3 star but the hotel is about 3-4 miles from where we stay on IH-10 at the energy corridor. I saved about 10 dollars but don't think I will stay here again- area is dark and somewhat dingy, not mention off the tollway.MoreShow less</t>
+  </si>
+  <si>
+    <t>Standard 3 star hotel with free wifi and outdoor pool. Rooms are large with king bed or two queen beds and sofa.A little bit understaffed- I called twice and was put on hold for 15 minutes each time and when I was at the hotel only one person in the front desk. I was not told check out time when we checked in, and as we were closing our bags at 11:10 am they called us and said you need to check out because check out is 11 am.I reserved with Hotwire under Energy corridor 3 star but the hotel is about 3-4 miles from where we stay on IH-10 at the energy corridor. I saved about 10 dollars but don't think I will stay here again- area is dark and somewhat dingy, not mention off the tollway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223140-r400116809-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>400116809</t>
+  </si>
+  <si>
+    <t>08/01/2016</t>
+  </si>
+  <si>
+    <t>Great 4 day stay</t>
+  </si>
+  <si>
+    <t>Stayed here for a long weekend getaway in July 2016.  Front desk service was excellent.  They made every effort to accommodate a last minute revision I was requesting.  Room was clean and roomy.  Our room was on the Clay Road side and road noise was not noticeable.  Easy access to Sam Houston Tollway - Beltway 8.  Used location for trips into downtown and west of Houston.  Found it convenient.  Free breakfast included hot dishes.  Room was quiet.  AC worked fine and kept room nice and cool.  Excellent value for the price of the room.Best:  Good value; staff very responsive, clean propertyLeast:  Completely satisfied.  The breakfast was a little above what you would expect, with the hot servings being offered.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Stayed here for a long weekend getaway in July 2016.  Front desk service was excellent.  They made every effort to accommodate a last minute revision I was requesting.  Room was clean and roomy.  Our room was on the Clay Road side and road noise was not noticeable.  Easy access to Sam Houston Tollway - Beltway 8.  Used location for trips into downtown and west of Houston.  Found it convenient.  Free breakfast included hot dishes.  Room was quiet.  AC worked fine and kept room nice and cool.  Excellent value for the price of the room.Best:  Good value; staff very responsive, clean propertyLeast:  Completely satisfied.  The breakfast was a little above what you would expect, with the hot servings being offered.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223140-r394433378-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>394433378</t>
+  </si>
+  <si>
+    <t>07/19/2016</t>
+  </si>
+  <si>
+    <t>Sub-par Houston accomodations</t>
+  </si>
+  <si>
+    <t>There was no one at the front desk to check me in upon arrival. I had to wait nearly 15 minutes. When I returned from dinner, the AC had reset and it was nearly 80 degrees in my room. I decided to shower to cool off, while the room was in the process of cooling(about 1 degree every 30 minutes), however, there was no soap or shampoo in the bathroom. I went to the front desk, where I had to wait, again, for someone to show up. She did offer to move me to another room, but at nearly 11 o'clock with a 7 AM meeting, I declined. Upon checkout in the AM, no one at the front desk again, with 2 other peoples room card deposited on the desk. I just left, and had them email me a receipt for my expenses.MoreShow less</t>
+  </si>
+  <si>
+    <t>Natty  R, General Manager at Comfort Suites, responded to this reviewResponded July 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 20, 2016</t>
+  </si>
+  <si>
+    <t>There was no one at the front desk to check me in upon arrival. I had to wait nearly 15 minutes. When I returned from dinner, the AC had reset and it was nearly 80 degrees in my room. I decided to shower to cool off, while the room was in the process of cooling(about 1 degree every 30 minutes), however, there was no soap or shampoo in the bathroom. I went to the front desk, where I had to wait, again, for someone to show up. She did offer to move me to another room, but at nearly 11 o'clock with a 7 AM meeting, I declined. Upon checkout in the AM, no one at the front desk again, with 2 other peoples room card deposited on the desk. I just left, and had them email me a receipt for my expenses.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223140-r387045854-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>387045854</t>
+  </si>
+  <si>
+    <t>06/28/2016</t>
+  </si>
+  <si>
+    <t>Not impressed</t>
+  </si>
+  <si>
+    <t>The elevator was out for most of the weekend, the breakfast was sub-par, and the bed and pillows left me in pain all week. It was probably the most uncomfortable bed and pillows I've ever had at a motel. On the bright side, the staff was friendly, and the motel was very clean. I'm just not sure I could bear another week on ibuprofen after a motel stay. This is unusual for a Comfort Suites. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Phil H, General Manager at Comfort Suites, responded to this reviewResponded July 20, 2016</t>
+  </si>
+  <si>
+    <t>The elevator was out for most of the weekend, the breakfast was sub-par, and the bed and pillows left me in pain all week. It was probably the most uncomfortable bed and pillows I've ever had at a motel. On the bright side, the staff was friendly, and the motel was very clean. I'm just not sure I could bear another week on ibuprofen after a motel stay. This is unusual for a Comfort Suites. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223140-r356609197-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>356609197</t>
+  </si>
+  <si>
+    <t>03/18/2016</t>
+  </si>
+  <si>
+    <t>Has Potential</t>
+  </si>
+  <si>
+    <t>This hotel was recently renovated, offering business travelers a nice size room for an extended stay.When arriving at the hotel I was told all of our rooms are dirty come back.  I am more accustomed to your room is not ready yet, can we call your cell phone.  Without all of the details, I found the room to be comfortable but the staff in need of training. Therefore this property has potential.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223140-r325858034-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>325858034</t>
+  </si>
+  <si>
+    <t>11/10/2015</t>
+  </si>
+  <si>
+    <t>Great stay!</t>
+  </si>
+  <si>
+    <t>I was here this past weekend. As soon as you walk in, there's a smell of clean that hits you right in the fast. I stayed after the previous reviewer so perhaps they corrected the "musty" smell that person experienced. We stayed in room 223. It was very nice, spacious, and clean. It was a very quiet hotel. We didn't hear a word the entire time we were there.The carpet was damp right by the AC unit, so yea, probably a leak. Fridge and Microwave, flat screen TV, free wifi and awesome breakfast. It served it's purpose. We would stay again. The management also let us check out a couple hours late free of charge so that was very nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>I was here this past weekend. As soon as you walk in, there's a smell of clean that hits you right in the fast. I stayed after the previous reviewer so perhaps they corrected the "musty" smell that person experienced. We stayed in room 223. It was very nice, spacious, and clean. It was a very quiet hotel. We didn't hear a word the entire time we were there.The carpet was damp right by the AC unit, so yea, probably a leak. Fridge and Microwave, flat screen TV, free wifi and awesome breakfast. It served it's purpose. We would stay again. The management also let us check out a couple hours late free of charge so that was very nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223140-r323637685-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>323637685</t>
+  </si>
+  <si>
+    <t>11/01/2015</t>
+  </si>
+  <si>
+    <t>Funeral/Nightmare/Brief summary</t>
+  </si>
+  <si>
+    <t>Room 111-Musty smell. I thought at first because the air had not been running maybe the room just needed clean air circulation; not the case. The carpet was somewhat damp too while running the A/C to cool the room and eliminate the smell. Obviously it's a leak in the unit and it seaped in to the carpet therefore causing the smell.Room change #2-Room 117-I was here with my children for a family funeral. I didn't even bother walking into that room, as our neighbors across the hallway and next door had their doors open; GROWN MEN/very loud/construction workers. Really?! I have to little girls. Room change #3. Mind you this was all in the same night. Room 109. I gave up. By the point I was in tears with Expedia trying to have my money reversed. Room number 3 reeked of body odor. :'-( the beds were so hard, the shower handle was broken, we were not able to bathe, etc. I will say though, that Raul working the desk that evejng/night, I felt was compassionate in trying to help me. MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Room 111-Musty smell. I thought at first because the air had not been running maybe the room just needed clean air circulation; not the case. The carpet was somewhat damp too while running the A/C to cool the room and eliminate the smell. Obviously it's a leak in the unit and it seaped in to the carpet therefore causing the smell.Room change #2-Room 117-I was here with my children for a family funeral. I didn't even bother walking into that room, as our neighbors across the hallway and next door had their doors open; GROWN MEN/very loud/construction workers. Really?! I have to little girls. Room change #3. Mind you this was all in the same night. Room 109. I gave up. By the point I was in tears with Expedia trying to have my money reversed. Room number 3 reeked of body odor. :'-( the beds were so hard, the shower handle was broken, we were not able to bathe, etc. I will say though, that Raul working the desk that evejng/night, I felt was compassionate in trying to help me. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223140-r311437330-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>311437330</t>
+  </si>
+  <si>
+    <t>09/17/2015</t>
+  </si>
+  <si>
+    <t>Home Away From Home</t>
+  </si>
+  <si>
+    <t>I have been staying every week for four months with my work crew. This place is great! Staff is friendly and courteous. Rooms are clean and the hot breakfast is a nice touch to start your day. This is definitely my hotel of choice and on top of all those great things they have a nice size pool and spa to end my day with. So if your looking for a great place at the right price choose this Comfort Suites. It's worth every penny!</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223140-r252013476-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>252013476</t>
+  </si>
+  <si>
+    <t>01/31/2015</t>
+  </si>
+  <si>
+    <t>Soccer Tournament weekend</t>
+  </si>
+  <si>
+    <t>My family along with other families stayed here over the weekend due to our daughter's soccer tournament. The convenience was great, but even the hotel's remodeled rooms were very poor! It was "updated" yet was a very sloppy and cheap job. The bathroom door was not on correctly and would not lock plus the huge gaping hole to the inside of the bathroom was horrible. The electric socket didn't have a PLATE on it! There was paint "accidently" slopped on the furniture, and there were places that were just "patched" up with spackle and paint. Very sloppy! We were not welcomed professionally. The YOUNG lady at the desk hardly spoke to us and she didn't even tell us what floor I was on or where things were..like due to the reno there's NOT an ice machine, washer and dryers, etc. Just gave me the key. Hmmm...definitely not professional. This hotel has a LONG way to go to excel with other hotels on this level. MoreShow less</t>
+  </si>
+  <si>
+    <t>gmtx531, General Manager at Comfort Suites, responded to this reviewResponded February 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 2, 2015</t>
+  </si>
+  <si>
+    <t>My family along with other families stayed here over the weekend due to our daughter's soccer tournament. The convenience was great, but even the hotel's remodeled rooms were very poor! It was "updated" yet was a very sloppy and cheap job. The bathroom door was not on correctly and would not lock plus the huge gaping hole to the inside of the bathroom was horrible. The electric socket didn't have a PLATE on it! There was paint "accidently" slopped on the furniture, and there were places that were just "patched" up with spackle and paint. Very sloppy! We were not welcomed professionally. The YOUNG lady at the desk hardly spoke to us and she didn't even tell us what floor I was on or where things were..like due to the reno there's NOT an ice machine, washer and dryers, etc. Just gave me the key. Hmmm...definitely not professional. This hotel has a LONG way to go to excel with other hotels on this level. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223140-r247902262-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>247902262</t>
+  </si>
+  <si>
+    <t>01/06/2015</t>
+  </si>
+  <si>
+    <t>Good stay</t>
+  </si>
+  <si>
+    <t>We stayed one night at this location and had no complaints. There is renovation going on-we noticed noise related to this as we were checking out in the morning-but never anything that disturbed us in any way. Room was spacious with great linens and comfortable beds.  The breakfast area was great and well stocked. I would not hesitate recommending this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>gmtx531, General Manager at Comfort Suites, responded to this reviewResponded January 7, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 7, 2015</t>
+  </si>
+  <si>
+    <t>We stayed one night at this location and had no complaints. There is renovation going on-we noticed noise related to this as we were checking out in the morning-but never anything that disturbed us in any way. Room was spacious with great linens and comfortable beds.  The breakfast area was great and well stocked. I would not hesitate recommending this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223140-r234145620-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>234145620</t>
+  </si>
+  <si>
+    <t>10/13/2014</t>
+  </si>
+  <si>
+    <t>Nice Stay</t>
+  </si>
+  <si>
+    <t>After reading the previous review, I was very leery of staying at this hotel, but I decided to give it a try.  I was pleasantly surprised by the hotel’s condition and courteous staff. We were greeted by a friendly front desk attendant. She answered all of our questions and made sure we got settled in. We had two rooms on the 2nd floor, 211 and 223; both were clean and very spacious. The beds were comfy, and the in-room microwave and fridge were a plus. The breakfast was plentiful and tasty; there were hot and cold items. I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>Donovan S, General Manager at Comfort Suites, responded to this reviewResponded October 16, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 16, 2014</t>
+  </si>
+  <si>
+    <t>After reading the previous review, I was very leery of staying at this hotel, but I decided to give it a try.  I was pleasantly surprised by the hotel’s condition and courteous staff. We were greeted by a friendly front desk attendant. She answered all of our questions and made sure we got settled in. We had two rooms on the 2nd floor, 211 and 223; both were clean and very spacious. The beds were comfy, and the in-room microwave and fridge were a plus. The breakfast was plentiful and tasty; there were hot and cold items. I would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223140-r194180752-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>194180752</t>
+  </si>
+  <si>
+    <t>02/15/2014</t>
+  </si>
+  <si>
+    <t>I would stay again</t>
+  </si>
+  <si>
+    <t>The service was great and everyone was very friendly and accommodating. The room was clean and the bed was decent. It is very close to the freeway so you are minutes to a connecting freeway. Breakfast is a nice touch. I'm a very picky person but I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>Donovan S, General Manager at Comfort Suites, responded to this reviewResponded February 18, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 18, 2014</t>
+  </si>
+  <si>
+    <t>The service was great and everyone was very friendly and accommodating. The room was clean and the bed was decent. It is very close to the freeway so you are minutes to a connecting freeway. Breakfast is a nice touch. I'm a very picky person but I would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223140-r190561161-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>190561161</t>
+  </si>
+  <si>
+    <t>01/11/2014</t>
+  </si>
+  <si>
+    <t>Service is their selling point</t>
+  </si>
+  <si>
+    <t>My wife and I stayed there for 2 nights during the New Year holiday. As expected, not many guests in the premises. In most cases, we felt we are the only guests. The front desk associate Rose is extremely helpful and friendly. This hotel provides happy hour finger snack eg buffalo wings, orange, celery, soda, etc... which is an above and beyond service for this level of hotel. The room  is clean and well maintained but needs modernization. The hotel location is on Beltway 8 and about 3 miles north of I-10. This should not be a problem if toll is not a consideration. It takes about 15 mins to go to SW Houston if no traffic.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>Donovan S, General Manager at Comfort Suites, responded to this reviewResponded January 14, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 14, 2014</t>
+  </si>
+  <si>
+    <t>My wife and I stayed there for 2 nights during the New Year holiday. As expected, not many guests in the premises. In most cases, we felt we are the only guests. The front desk associate Rose is extremely helpful and friendly. This hotel provides happy hour finger snack eg buffalo wings, orange, celery, soda, etc... which is an above and beyond service for this level of hotel. The room  is clean and well maintained but needs modernization. The hotel location is on Beltway 8 and about 3 miles north of I-10. This should not be a problem if toll is not a consideration. It takes about 15 mins to go to SW Houston if no traffic.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223140-r165218920-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>165218920</t>
+  </si>
+  <si>
+    <t>06/25/2013</t>
+  </si>
+  <si>
+    <t>This hotel is located in an ideal location right off the interstate.  When I checked into the hotel the man at the front desk was exceptionally helpful.  He printed off directions for me and provided a list of places to eat.  The room was clean and the shower pressure in the bathroom was perfect.  The only thing I didn't enjoy was the breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>Donovan S, General Manager at Comfort Suites, responded to this reviewResponded June 27, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 27, 2013</t>
+  </si>
+  <si>
+    <t>This hotel is located in an ideal location right off the interstate.  When I checked into the hotel the man at the front desk was exceptionally helpful.  He printed off directions for me and provided a list of places to eat.  The room was clean and the shower pressure in the bathroom was perfect.  The only thing I didn't enjoy was the breakfast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223140-r156106436-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>156106436</t>
+  </si>
+  <si>
+    <t>03/30/2013</t>
+  </si>
+  <si>
+    <t>Clean and peaceful</t>
+  </si>
+  <si>
+    <t>I really liked this hotel.  Clean, comfortable, friendly and good breakfast (scrambled eggs, hard boiled eggs, ham, egg rolls, hash browns, oatmeal, yogurt, bagels with cream cheese, toast, two flavors of pancakes, etc.).  Well lit and spacious rooms.  Sleeper sofa too.  I did find a dead cricket and a small dead cockroach in the room, but at least they were already dead (pesticide working?).  Good location with 5 min walk to sonic, taco cabana and McDonald's.   not crowded at all.  MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>Donovan S, General Manager at Comfort Suites, responded to this reviewResponded April 2, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 2, 2013</t>
+  </si>
+  <si>
+    <t>I really liked this hotel.  Clean, comfortable, friendly and good breakfast (scrambled eggs, hard boiled eggs, ham, egg rolls, hash browns, oatmeal, yogurt, bagels with cream cheese, toast, two flavors of pancakes, etc.).  Well lit and spacious rooms.  Sleeper sofa too.  I did find a dead cricket and a small dead cockroach in the room, but at least they were already dead (pesticide working?).  Good location with 5 min walk to sonic, taco cabana and McDonald's.   not crowded at all.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223140-r150377773-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>150377773</t>
+  </si>
+  <si>
+    <t>01/23/2013</t>
+  </si>
+  <si>
+    <t>Large but very dated rooms.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It was a large room with a king bed and a sofa. Great wifi but room was a little musty and very dated. The price was good though. I guess you often get what you pay for! When we arrived there was no one at the desk. Took a lady about 5minutes to arrive and get us checked in. Breakfast was included but quite simple and ran out of eggs early. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223140-r139424289-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>139424289</t>
+  </si>
+  <si>
+    <t>09/04/2012</t>
+  </si>
+  <si>
+    <t>Nice location, small suites.</t>
+  </si>
+  <si>
+    <t>Drove all the way from mexico city to houston. We got to the hotel by 2:00 am, great check in and welcome despite the hour. The hotel is in a good position, close to many interesting spots for shopping, also close to the highway and downtown. Parking is free.  We stayed in another Comfort Suites in Chicago, the price was very similar but the difference between them is huge. This room was much smaller, looked older and the bathroom was pretty average.</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223140-r123172210-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>123172210</t>
+  </si>
+  <si>
+    <t>01/16/2012</t>
+  </si>
+  <si>
+    <t>Location is good but the service and the room were gross.</t>
+  </si>
+  <si>
+    <t>Will never stay here again.  When I tried to pour milk it came out solid. Very few items available.  Chair and sofa had brown stains. We were afraid to sit on the furniture.</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223140-r116418032-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>116418032</t>
+  </si>
+  <si>
+    <t>08/08/2011</t>
+  </si>
+  <si>
+    <t>Good location for Houston</t>
+  </si>
+  <si>
+    <t>Location is very good, if you don't have a car, there are lots of restaurants , target, fiesta gross market walking distance. Breakfest was very good. They have free shuttle to the medical center, rooms are quite big with sofa and working desk. Clean, silent. Pool small but ok. Very close to the stadium.</t>
+  </si>
+  <si>
+    <t>September 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223140-r74493151-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>74493151</t>
+  </si>
+  <si>
+    <t>08/09/2010</t>
+  </si>
+  <si>
+    <t>Exceptional Service &amp; Stay</t>
+  </si>
+  <si>
+    <t>My stay at this establishment was wonderful.  The staff was very kind and helpful. The complementary breakfast was very good as well.  I had made the mistake of NOT booking my second week of business stay with this hotel and went with another nearby hotel which was was just about the same in price per night - but the BIG difference was the PEOPLE factor.  The hosts at this establishment were very people friendly and were not afraid to speak to you and did not ignore you as you walked in the door.  I am sad to say that the other hotel that I did stay at for my second week were NOT very friendly – and a COMPLETE turn off.  I will not be staying at the other hotel next time and instead be staying this hotel.  Excellent service – it is something that is often an understatement at most establishments nowadays….but not at this hotel.  Nicely done!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>My stay at this establishment was wonderful.  The staff was very kind and helpful. The complementary breakfast was very good as well.  I had made the mistake of NOT booking my second week of business stay with this hotel and went with another nearby hotel which was was just about the same in price per night - but the BIG difference was the PEOPLE factor.  The hosts at this establishment were very people friendly and were not afraid to speak to you and did not ignore you as you walked in the door.  I am sad to say that the other hotel that I did stay at for my second week were NOT very friendly – and a COMPLETE turn off.  I will not be staying at the other hotel next time and instead be staying this hotel.  Excellent service – it is something that is often an understatement at most establishments nowadays….but not at this hotel.  Nicely done!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223140-r20832609-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>20832609</t>
+  </si>
+  <si>
+    <t>10/12/2008</t>
+  </si>
+  <si>
+    <t>Subpar by Far</t>
+  </si>
+  <si>
+    <t>On a business trip after Hurricane Ike, hotel availability in Houston was scarce. The vendor got this hotel for us. It was OK, a place to sleep but nothing more. The room was dirty. The shower had left over soap and shampoo from the previous guest. The jacuzzi had hair in it -- I didn't even want to think about the bacteria in the pumps.Breakfast was OK. Very poor selection of cereal -- hey, I'm not that picky. Ended up making waffles, but by day 3 of 5, the waffle maker was broken too.If you really need a room, or get this cheap go for it, otherwise, you can do better.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2008</t>
+  </si>
+  <si>
+    <t>On a business trip after Hurricane Ike, hotel availability in Houston was scarce. The vendor got this hotel for us. It was OK, a place to sleep but nothing more. The room was dirty. The shower had left over soap and shampoo from the previous guest. The jacuzzi had hair in it -- I didn't even want to think about the bacteria in the pumps.Breakfast was OK. Very poor selection of cereal -- hey, I'm not that picky. Ended up making waffles, but by day 3 of 5, the waffle maker was broken too.If you really need a room, or get this cheap go for it, otherwise, you can do better.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223140-r3791302-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>3791302</t>
+  </si>
+  <si>
+    <t>08/19/2005</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>I recently returned from this Comfort Suites. I got the jacuzzi suite and it was great. The room was bigger than I've seen in a while and everything was in order. The room and the bathroom were clean. I liked that although there was a jacuzzi in the room, there was also a shower and bathtub in the bathroom.  The staff was helpful and the breakfast was good. The waffle maker definitely made me smile.  The hotel is located directly off the Beltway 8 and close to malls and restaurants. I will definitely stay here again.</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1197,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1229,1916 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>42022</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>42022</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="n">
+        <v>4</v>
+      </c>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>42022</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>67</v>
+      </c>
+      <c r="X4" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>42022</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" t="s">
+        <v>59</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>76</v>
+      </c>
+      <c r="X5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>42022</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>84</v>
+      </c>
+      <c r="O6" t="s">
+        <v>85</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>42022</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>84</v>
+      </c>
+      <c r="O7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>42022</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>94</v>
+      </c>
+      <c r="J8" t="s">
+        <v>95</v>
+      </c>
+      <c r="K8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L8" t="s">
+        <v>97</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>98</v>
+      </c>
+      <c r="O8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>42022</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>100</v>
+      </c>
+      <c r="J9" t="s">
+        <v>101</v>
+      </c>
+      <c r="K9" t="s">
+        <v>102</v>
+      </c>
+      <c r="L9" t="s">
+        <v>103</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O9" t="s">
+        <v>92</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>3</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>42022</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>106</v>
+      </c>
+      <c r="J10" t="s">
+        <v>107</v>
+      </c>
+      <c r="K10" t="s">
+        <v>108</v>
+      </c>
+      <c r="L10" t="s">
+        <v>109</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>110</v>
+      </c>
+      <c r="O10" t="s">
+        <v>111</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>42022</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>114</v>
+      </c>
+      <c r="J11" t="s">
+        <v>115</v>
+      </c>
+      <c r="K11" t="s">
+        <v>116</v>
+      </c>
+      <c r="L11" t="s">
+        <v>117</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>110</v>
+      </c>
+      <c r="O11" t="s">
+        <v>59</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>118</v>
+      </c>
+      <c r="X11" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>42022</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>122</v>
+      </c>
+      <c r="J12" t="s">
+        <v>123</v>
+      </c>
+      <c r="K12" t="s">
+        <v>124</v>
+      </c>
+      <c r="L12" t="s">
+        <v>125</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>126</v>
+      </c>
+      <c r="O12" t="s">
+        <v>59</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>127</v>
+      </c>
+      <c r="X12" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>42022</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>129</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>130</v>
+      </c>
+      <c r="J13" t="s">
+        <v>131</v>
+      </c>
+      <c r="K13" t="s">
+        <v>132</v>
+      </c>
+      <c r="L13" t="s">
+        <v>133</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>134</v>
+      </c>
+      <c r="O13" t="s">
+        <v>59</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>3</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>42022</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>135</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>136</v>
+      </c>
+      <c r="J14" t="s">
+        <v>137</v>
+      </c>
+      <c r="K14" t="s">
+        <v>138</v>
+      </c>
+      <c r="L14" t="s">
+        <v>139</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>140</v>
+      </c>
+      <c r="O14" t="s">
+        <v>59</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>42022</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>142</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>143</v>
+      </c>
+      <c r="J15" t="s">
+        <v>144</v>
+      </c>
+      <c r="K15" t="s">
+        <v>145</v>
+      </c>
+      <c r="L15" t="s">
+        <v>146</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>147</v>
+      </c>
+      <c r="O15" t="s">
+        <v>92</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>42022</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>149</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>150</v>
+      </c>
+      <c r="J16" t="s">
+        <v>151</v>
+      </c>
+      <c r="K16" t="s">
+        <v>152</v>
+      </c>
+      <c r="L16" t="s">
+        <v>153</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>154</v>
+      </c>
+      <c r="O16" t="s">
+        <v>59</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>42022</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>155</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>156</v>
+      </c>
+      <c r="J17" t="s">
+        <v>157</v>
+      </c>
+      <c r="K17" t="s">
+        <v>158</v>
+      </c>
+      <c r="L17" t="s">
+        <v>159</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s"/>
+      <c r="O17" t="s"/>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>160</v>
+      </c>
+      <c r="X17" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>42022</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>163</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>164</v>
+      </c>
+      <c r="J18" t="s">
+        <v>165</v>
+      </c>
+      <c r="K18" t="s">
+        <v>166</v>
+      </c>
+      <c r="L18" t="s">
+        <v>167</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>168</v>
+      </c>
+      <c r="O18" t="s">
+        <v>92</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>169</v>
+      </c>
+      <c r="X18" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>42022</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>172</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>173</v>
+      </c>
+      <c r="J19" t="s">
+        <v>174</v>
+      </c>
+      <c r="K19" t="s">
+        <v>175</v>
+      </c>
+      <c r="L19" t="s">
+        <v>176</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>177</v>
+      </c>
+      <c r="O19" t="s">
+        <v>92</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>178</v>
+      </c>
+      <c r="X19" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>42022</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>181</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>182</v>
+      </c>
+      <c r="J20" t="s">
+        <v>183</v>
+      </c>
+      <c r="K20" t="s">
+        <v>184</v>
+      </c>
+      <c r="L20" t="s">
+        <v>185</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>186</v>
+      </c>
+      <c r="O20" t="s">
+        <v>66</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>187</v>
+      </c>
+      <c r="X20" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>42022</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>190</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>191</v>
+      </c>
+      <c r="J21" t="s">
+        <v>192</v>
+      </c>
+      <c r="K21" t="s">
+        <v>193</v>
+      </c>
+      <c r="L21" t="s">
+        <v>194</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>195</v>
+      </c>
+      <c r="O21" t="s">
+        <v>111</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" t="n">
+        <v>2</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>196</v>
+      </c>
+      <c r="X21" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>42022</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>199</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>200</v>
+      </c>
+      <c r="J22" t="s">
+        <v>201</v>
+      </c>
+      <c r="K22" t="s">
+        <v>12</v>
+      </c>
+      <c r="L22" t="s">
+        <v>202</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>203</v>
+      </c>
+      <c r="O22" t="s">
+        <v>59</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>204</v>
+      </c>
+      <c r="X22" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>42022</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>207</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>208</v>
+      </c>
+      <c r="J23" t="s">
+        <v>209</v>
+      </c>
+      <c r="K23" t="s">
+        <v>210</v>
+      </c>
+      <c r="L23" t="s">
+        <v>211</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>212</v>
+      </c>
+      <c r="O23" t="s">
+        <v>92</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>213</v>
+      </c>
+      <c r="X23" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>42022</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>216</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>217</v>
+      </c>
+      <c r="J24" t="s">
+        <v>218</v>
+      </c>
+      <c r="K24" t="s">
+        <v>219</v>
+      </c>
+      <c r="L24" t="s">
+        <v>220</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s"/>
+      <c r="O24" t="s"/>
+      <c r="P24" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>3</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>3</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>42022</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>221</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>222</v>
+      </c>
+      <c r="J25" t="s">
+        <v>223</v>
+      </c>
+      <c r="K25" t="s">
+        <v>224</v>
+      </c>
+      <c r="L25" t="s">
+        <v>225</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>226</v>
+      </c>
+      <c r="O25" t="s">
+        <v>111</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>3</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>42022</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>227</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>228</v>
+      </c>
+      <c r="J26" t="s">
+        <v>229</v>
+      </c>
+      <c r="K26" t="s">
+        <v>230</v>
+      </c>
+      <c r="L26" t="s">
+        <v>231</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="s">
+        <v>232</v>
+      </c>
+      <c r="O26" t="s">
+        <v>92</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>3</v>
+      </c>
+      <c r="R26" t="n">
+        <v>3</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>2</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>42022</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>233</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>234</v>
+      </c>
+      <c r="J27" t="s">
+        <v>235</v>
+      </c>
+      <c r="K27" t="s">
+        <v>236</v>
+      </c>
+      <c r="L27" t="s">
+        <v>237</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>238</v>
+      </c>
+      <c r="O27" t="s">
+        <v>92</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>42022</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>239</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>240</v>
+      </c>
+      <c r="J28" t="s">
+        <v>241</v>
+      </c>
+      <c r="K28" t="s">
+        <v>242</v>
+      </c>
+      <c r="L28" t="s">
+        <v>243</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>244</v>
+      </c>
+      <c r="O28" t="s">
+        <v>59</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>4</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>42022</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>246</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>247</v>
+      </c>
+      <c r="J29" t="s">
+        <v>248</v>
+      </c>
+      <c r="K29" t="s">
+        <v>249</v>
+      </c>
+      <c r="L29" t="s">
+        <v>250</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" t="s">
+        <v>251</v>
+      </c>
+      <c r="O29" t="s">
+        <v>59</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>3</v>
+      </c>
+      <c r="R29" t="n">
+        <v>3</v>
+      </c>
+      <c r="S29" t="n">
+        <v>2</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>3</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>42022</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>253</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>254</v>
+      </c>
+      <c r="J30" t="s">
+        <v>255</v>
+      </c>
+      <c r="K30" t="s">
+        <v>256</v>
+      </c>
+      <c r="L30" t="s">
+        <v>257</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s"/>
+      <c r="O30" t="s"/>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>3</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>257</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_115.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_115.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="402">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,16 +150,61 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/06/2018</t>
+    <t>09/03/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223140-r599545872-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>223140</t>
+  </si>
+  <si>
+    <t>599545872</t>
+  </si>
+  <si>
+    <t>07/25/2018</t>
+  </si>
+  <si>
+    <t>clean and nice</t>
+  </si>
+  <si>
+    <t>I stayed here because I wanted to be close to a business nearby so when I got up in the morning I did not have to fight traffic. It was nice and clean and we'll taken care of. Quiet too. Good room. There is a Sonic and Mexican fast food across the street. Safe area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223140-r562331424-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>562331424</t>
+  </si>
+  <si>
+    <t>02/23/2018</t>
+  </si>
+  <si>
+    <t>If I was the Hotel Inspector, I would have flunked this hotel</t>
+  </si>
+  <si>
+    <t>From the time I walked in to the time I walked out, there were several KCD's. Let's start off with the Check In, NO ONE was at the desk when I got there. I actually spied a young lady in a side office wearing a training nametag sleeping on a chair. It was not until I called her that she came to the office. I checked in, went to my room and notice a streaky mirror in the bathroom and no smoke detector on the ceiling. Imagine had there been a fire? I had arrived from Brownsville and stopped for dinner before arriving at the hotel bringing my dessert with me. As I was putting my dessert in the Microfridge, I found the smoke alarm. The cleanlieness of the hotel was ok but the inside corridors were extremely stuffy. Considering that the weather was not cold outside, the staff could have at least turned on the A/C. At check out I made the clerk aware of my findings and he laughed. Management needs to be more on top of their staff when it comes to the safety of each room for their guests.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Phil H, Manager at Comfort Suites, responded to this reviewResponded February 25, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 25, 2018</t>
+  </si>
+  <si>
+    <t>From the time I walked in to the time I walked out, there were several KCD's. Let's start off with the Check In, NO ONE was at the desk when I got there. I actually spied a young lady in a side office wearing a training nametag sleeping on a chair. It was not until I called her that she came to the office. I checked in, went to my room and notice a streaky mirror in the bathroom and no smoke detector on the ceiling. Imagine had there been a fire? I had arrived from Brownsville and stopped for dinner before arriving at the hotel bringing my dessert with me. As I was putting my dessert in the Microfridge, I found the smoke alarm. The cleanlieness of the hotel was ok but the inside corridors were extremely stuffy. Considering that the weather was not cold outside, the staff could have at least turned on the A/C. At check out I made the clerk aware of my findings and he laughed. Management needs to be more on top of their staff when it comes to the safety of each room for their guests.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223140-r543479483-Comfort_Suites-Houston_Texas.html</t>
-  </si>
-  <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>223140</t>
   </si>
   <si>
     <t>543479483</t>
@@ -224,9 +269,6 @@
     <t>May 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>Phil H, General Manager at Comfort Suites, responded to this reviewResponded September 27, 2017</t>
   </si>
   <si>
@@ -236,6 +278,60 @@
     <t>My stay was GREAT!!! I booked my room thru Hotwire and checking in was no problem. My room was clean and quiet, breakfast and the evening repass were simply delicious and I was comfortable. I'll definitely come back and refer.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223140-r479484197-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>479484197</t>
+  </si>
+  <si>
+    <t>04/27/2017</t>
+  </si>
+  <si>
+    <t>Nice room</t>
+  </si>
+  <si>
+    <t>I caught a good deal here and impressed with the room.  Nicely decorated.  Lot of cable channels with direct TV.  Breakfast was lame.  Waffles don't do it for me anymore.  Big problem there was nothing near by to eat except a Taco Cabana and a Sonic and nothing desirable and would had to drive 5 miles away on a street the hotel is on has a lot of heavy traffic.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Phil H, General Manager at Comfort Suites, responded to this reviewResponded May 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 2, 2017</t>
+  </si>
+  <si>
+    <t>I caught a good deal here and impressed with the room.  Nicely decorated.  Lot of cable channels with direct TV.  Breakfast was lame.  Waffles don't do it for me anymore.  Big problem there was nothing near by to eat except a Taco Cabana and a Sonic and nothing desirable and would had to drive 5 miles away on a street the hotel is on has a lot of heavy traffic.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223140-r449349985-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>449349985</t>
+  </si>
+  <si>
+    <t>01/04/2017</t>
+  </si>
+  <si>
+    <t>Nice hotel, convenient to IAH Airport &amp; Houston Energy Corridor</t>
+  </si>
+  <si>
+    <t>I stayed here for 1 night, on my way from IAH Airport to a Christmas Day reunion with my family in Houston. Easy to find, pleasant staff, quick check in and comfortable rooms. Breakfast was OK (typical 3 star arrangement). I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Phil H, General Manager at Comfort Suites, responded to this reviewResponded January 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 5, 2017</t>
+  </si>
+  <si>
+    <t>I stayed here for 1 night, on my way from IAH Airport to a Christmas Day reunion with my family in Houston. Easy to find, pleasant staff, quick check in and comfortable rooms. Breakfast was OK (typical 3 star arrangement). I would stay here again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223140-r436364438-Comfort_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -252,12 +348,6 @@
   </si>
   <si>
     <t>November 2016</t>
-  </si>
-  <si>
-    <t>Phil H, General Manager at Comfort Suites, responded to this reviewResponded January 5, 2017</t>
-  </si>
-  <si>
-    <t>Responded January 5, 2017</t>
   </si>
   <si>
     <t>This was a great hotel. The room was clean &amp; spacious. When I checked in, they had a complimentary happy hour that included Mexican food. The fact that it is very reasonably priced is a bonus. Some of the amenities include satellite tv, mini-fridge, &amp; a microwave. The only negative I can say is the bathroom was not well lit.  Ladies might find it difficult to do makeup. I would recommend this hotel. More</t>
@@ -311,6 +401,54 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223140-r419835148-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>419835148</t>
+  </si>
+  <si>
+    <t>09/18/2016</t>
+  </si>
+  <si>
+    <t>Nice experience</t>
+  </si>
+  <si>
+    <t>I booked through trip advisor using booking.com. I got exactly what I had requested so was quite pleased.Rooms were nice size with sofa area that was very comfortable. There was a charging station on the desk which was very nice and even lamps had outlets. Hot breakfast was good, and even though motel seemed very busy, there was lots of seating and adequate food.It was my first time to stay at a comfort suites, but would definitely stay again.On our last morning, my husband noticed moisture on the carpet near the air conditioner which he reported.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Phil H, General Manager at Comfort Suites, responded to this reviewResponded October 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 4, 2016</t>
+  </si>
+  <si>
+    <t>I booked through trip advisor using booking.com. I got exactly what I had requested so was quite pleased.Rooms were nice size with sofa area that was very comfortable. There was a charging station on the desk which was very nice and even lamps had outlets. Hot breakfast was good, and even though motel seemed very busy, there was lots of seating and adequate food.It was my first time to stay at a comfort suites, but would definitely stay again.On our last morning, my husband noticed moisture on the carpet near the air conditioner which he reported.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223140-r415281837-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>415281837</t>
+  </si>
+  <si>
+    <t>09/06/2016</t>
+  </si>
+  <si>
+    <t>Clean and hearty breakfast</t>
+  </si>
+  <si>
+    <t>Love the place.  Plenty of free parking, fast Wifi, and free breakfast with potato hashbrown, sausage, ham, scramble egg, waffle, etc.  Nice dining area and clean, spacious room.  It has an outdoor pool with spa and a gym, but we didn't use them.  They look clean to us.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Love the place.  Plenty of free parking, fast Wifi, and free breakfast with potato hashbrown, sausage, ham, scramble egg, waffle, etc.  Nice dining area and clean, spacious room.  It has an outdoor pool with spa and a gym, but we didn't use them.  They look clean to us.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223140-r411650181-Comfort_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -365,12 +503,39 @@
     <t>July 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>Stayed here for a long weekend getaway in July 2016.  Front desk service was excellent.  They made every effort to accommodate a last minute revision I was requesting.  Room was clean and roomy.  Our room was on the Clay Road side and road noise was not noticeable.  Easy access to Sam Houston Tollway - Beltway 8.  Used location for trips into downtown and west of Houston.  Found it convenient.  Free breakfast included hot dishes.  Room was quiet.  AC worked fine and kept room nice and cool.  Excellent value for the price of the room.Best:  Good value; staff very responsive, clean propertyLeast:  Completely satisfied.  The breakfast was a little above what you would expect, with the hot servings being offered.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223140-r399003203-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>399003203</t>
+  </si>
+  <si>
+    <t>07/29/2016</t>
+  </si>
+  <si>
+    <t>Very confused</t>
+  </si>
+  <si>
+    <t>Check in was a little confusing, had reserved a King room and was given a 2 Queen bed room.  Went back to the front and advised them and was told by the clerk that he gave me what the reservation called for.  I pulled my confirmation up on my phone thinking I had made a mistake but I was right.  They changed my room to a King.The room was OK a little on the humid side and had a musty smell to it. It was OK for one night.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223140-r399003197-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>399003197</t>
+  </si>
+  <si>
+    <t>Newly renovated, nice rooms</t>
+  </si>
+  <si>
+    <t>The hotel has recently been renovated and everything has a modern, updated feel.The staff was friendly even though we were initially given a queen room instead of the king room we booked. However, a few minutes at the front desk resolved that and we were in the right room.The bed is comfortable and has ample sitting space in the room as well as a nice desk to work at.They offer free wifi, but I couldn't get it to work on my computer.... But, that wasn't a deal breaker for me, I was here for family trip not business.The cost was budget friendly as well. My only complaint is that the room felt humid even though the AC unit had the room nicely cooled.I would stay here again if I needed to be in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel has recently been renovated and everything has a modern, updated feel.The staff was friendly even though we were initially given a queen room instead of the king room we booked. However, a few minutes at the front desk resolved that and we were in the right room.The bed is comfortable and has ample sitting space in the room as well as a nice desk to work at.They offer free wifi, but I couldn't get it to work on my computer.... But, that wasn't a deal breaker for me, I was here for family trip not business.The cost was budget friendly as well. My only complaint is that the room felt humid even though the AC unit had the room nicely cooled.I would stay here again if I needed to be in the area.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223140-r394433378-Comfort_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -437,6 +602,36 @@
     <t>March 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223140-r353265311-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>353265311</t>
+  </si>
+  <si>
+    <t>03/06/2016</t>
+  </si>
+  <si>
+    <t>First time stay..</t>
+  </si>
+  <si>
+    <t>Stayed 2 nights.  My room was at the front, 2nd floor.  Traffic noise at night was terrible.  A/C was very loud.  Breakfast was average relative to others that offer free breakfast.  Staff was kind but a little rough.  The hotel was VERY clean.  That I was impressed with.  Pricing was very fair for this area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223140-r353032110-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>353032110</t>
+  </si>
+  <si>
+    <t>03/05/2016</t>
+  </si>
+  <si>
+    <t>Best Value Ever</t>
+  </si>
+  <si>
+    <t>I'm not much for the use of hyperbolic, and when I say this was the best value in hotel stay I've ever received, it's not hyperbolic is a fact.  Rooms were well designed, hotel was nearly new, very modern and spacious, and even had room service. I've stayed in some very nice hotels, and only lived comfort suites due to the price and wanting to take an inexpensive trip, however I have been wowed by them so much, they will be my go to hotel for future family trips.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223140-r325858034-Comfort_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -497,6 +692,66 @@
     <t>August 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223140-r269056029-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>269056029</t>
+  </si>
+  <si>
+    <t>04/30/2015</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>I came down to houston to visit my mother at memorial herman hospital, and I stayed at this hotel for the convenience. I was very impressed of the newly renovated rooms. The staff was ver friendly, and I loved the fact that they offered happy hour for free! I would recommend staying at this hotel, clean and spacious rooms.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Natty  R, General Manager at Comfort Suites, responded to this reviewResponded May 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 4, 2015</t>
+  </si>
+  <si>
+    <t>I came down to houston to visit my mother at memorial herman hospital, and I stayed at this hotel for the convenience. I was very impressed of the newly renovated rooms. The staff was ver friendly, and I loved the fact that they offered happy hour for free! I would recommend staying at this hotel, clean and spacious rooms.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223140-r255393385-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>255393385</t>
+  </si>
+  <si>
+    <t>02/20/2015</t>
+  </si>
+  <si>
+    <t>big renovation going on</t>
+  </si>
+  <si>
+    <t>It's really a shame that the hotel makes NO mention at their Choice Hotels profile page that they are doing massive renovation - in my opinion it would help to soften the first impression shock when one enters the hotel. I should have checked here on TripAdvisor first to learn about the renovation.
+On the day I checked in - 2/17 - the entire front lobby was stripped bare; entire first floor rooms stripped bare and in disarray; many floor fans blowing; strong chemical smell; elevators completely shut down; both sets of stairs stripped with no carpeting; LOUD construction goes on until 5pm. It is quite stunning that they are still listing regular prices for these conditions. You would think they would offer construction prices during this time. Definitely a 'things have to first be bad to get better' kind of situation.
+Did not look at the 2nd floor, but the 3rd floor is a sign of things to come. This floor has completed renovation. The new rooms are nice - I would say now of Courtyard/Hilton Garden Inn quality. Part of the renovation no doubt includes brand new bed mattresses. I had a very firm one (how I like it), so actually had an incredible night's sleep. Also free wifi.
+If you ask for a room on the 3rd floor in the back, and don't mind loud construction until 5pm, and don't mind climbing 2 flights of stairs, I...It's really a shame that the hotel makes NO mention at their Choice Hotels profile page that they are doing massive renovation - in my opinion it would help to soften the first impression shock when one enters the hotel. I should have checked here on TripAdvisor first to learn about the renovation.On the day I checked in - 2/17 - the entire front lobby was stripped bare; entire first floor rooms stripped bare and in disarray; many floor fans blowing; strong chemical smell; elevators completely shut down; both sets of stairs stripped with no carpeting; LOUD construction goes on until 5pm. It is quite stunning that they are still listing regular prices for these conditions. You would think they would offer construction prices during this time. Definitely a 'things have to first be bad to get better' kind of situation.Did not look at the 2nd floor, but the 3rd floor is a sign of things to come. This floor has completed renovation. The new rooms are nice - I would say now of Courtyard/Hilton Garden Inn quality. Part of the renovation no doubt includes brand new bed mattresses. I had a very firm one (how I like it), so actually had an incredible night's sleep. Also free wifi.If you ask for a room on the 3rd floor in the back, and don't mind loud construction until 5pm, and don't mind climbing 2 flights of stairs, I was about to say it's not a bad stay here. Unfortunately my morning breakfast experience was dreadful. They have signage that clearly states that during the week their free breakfast starts at 6am. Did not happen. As late as 6:35pm the breakfast room (they also have this moved to the 3rd floor during the renovation) was still locked. I had to walk down the stairs to inquire about this. No one at their front desk. Climbed back up the stairs to get my things - I was going to have to leave for my morning appointment with no breakfast. I check one more time at 6:50am - by now the room had opened but there was only juice and dry items (cereal, pastries); still no coffee or eggs. So beware during the first hour whether you will be able to get breakfast or not.I'm sure this place will be great WHEN the renovation is done. For now, just beware of all the conditions.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>Natty  R, General Manager at Comfort Suites, responded to this reviewResponded February 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 23, 2015</t>
+  </si>
+  <si>
+    <t>It's really a shame that the hotel makes NO mention at their Choice Hotels profile page that they are doing massive renovation - in my opinion it would help to soften the first impression shock when one enters the hotel. I should have checked here on TripAdvisor first to learn about the renovation.
+On the day I checked in - 2/17 - the entire front lobby was stripped bare; entire first floor rooms stripped bare and in disarray; many floor fans blowing; strong chemical smell; elevators completely shut down; both sets of stairs stripped with no carpeting; LOUD construction goes on until 5pm. It is quite stunning that they are still listing regular prices for these conditions. You would think they would offer construction prices during this time. Definitely a 'things have to first be bad to get better' kind of situation.
+Did not look at the 2nd floor, but the 3rd floor is a sign of things to come. This floor has completed renovation. The new rooms are nice - I would say now of Courtyard/Hilton Garden Inn quality. Part of the renovation no doubt includes brand new bed mattresses. I had a very firm one (how I like it), so actually had an incredible night's sleep. Also free wifi.
+If you ask for a room on the 3rd floor in the back, and don't mind loud construction until 5pm, and don't mind climbing 2 flights of stairs, I...It's really a shame that the hotel makes NO mention at their Choice Hotels profile page that they are doing massive renovation - in my opinion it would help to soften the first impression shock when one enters the hotel. I should have checked here on TripAdvisor first to learn about the renovation.On the day I checked in - 2/17 - the entire front lobby was stripped bare; entire first floor rooms stripped bare and in disarray; many floor fans blowing; strong chemical smell; elevators completely shut down; both sets of stairs stripped with no carpeting; LOUD construction goes on until 5pm. It is quite stunning that they are still listing regular prices for these conditions. You would think they would offer construction prices during this time. Definitely a 'things have to first be bad to get better' kind of situation.Did not look at the 2nd floor, but the 3rd floor is a sign of things to come. This floor has completed renovation. The new rooms are nice - I would say now of Courtyard/Hilton Garden Inn quality. Part of the renovation no doubt includes brand new bed mattresses. I had a very firm one (how I like it), so actually had an incredible night's sleep. Also free wifi.If you ask for a room on the 3rd floor in the back, and don't mind loud construction until 5pm, and don't mind climbing 2 flights of stairs, I was about to say it's not a bad stay here. Unfortunately my morning breakfast experience was dreadful. They have signage that clearly states that during the week their free breakfast starts at 6am. Did not happen. As late as 6:35pm the breakfast room (they also have this moved to the 3rd floor during the renovation) was still locked. I had to walk down the stairs to inquire about this. No one at their front desk. Climbed back up the stairs to get my things - I was going to have to leave for my morning appointment with no breakfast. I check one more time at 6:50am - by now the room had opened but there was only juice and dry items (cereal, pastries); still no coffee or eggs. So beware during the first hour whether you will be able to get breakfast or not.I'm sure this place will be great WHEN the renovation is done. For now, just beware of all the conditions.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223140-r252013476-Comfort_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -575,6 +830,60 @@
     <t>After reading the previous review, I was very leery of staying at this hotel, but I decided to give it a try.  I was pleasantly surprised by the hotel’s condition and courteous staff. We were greeted by a friendly front desk attendant. She answered all of our questions and made sure we got settled in. We had two rooms on the 2nd floor, 211 and 223; both were clean and very spacious. The beds were comfy, and the in-room microwave and fridge were a plus. The breakfast was plentiful and tasty; there were hot and cold items. I would stay here again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223140-r222729013-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>222729013</t>
+  </si>
+  <si>
+    <t>08/18/2014</t>
+  </si>
+  <si>
+    <t>Needs updated</t>
+  </si>
+  <si>
+    <t>I stayed 2 nights. They told me the hotel is 10 years old and the rooms are going to be updated soon. Not soon enough. Stained carpets, electrical outlets not all working, bed sags terrible in the middle. The staff was not professional at all. I had to make requests more than once to get answers. There was a very bright light outside the window that lit the room up like it was day time. It was deceptive becasue the lobby looks new.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Donovan S, General Manager at Comfort Suites, responded to this reviewResponded August 21, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 21, 2014</t>
+  </si>
+  <si>
+    <t>I stayed 2 nights. They told me the hotel is 10 years old and the rooms are going to be updated soon. Not soon enough. Stained carpets, electrical outlets not all working, bed sags terrible in the middle. The staff was not professional at all. I had to make requests more than once to get answers. There was a very bright light outside the window that lit the room up like it was day time. It was deceptive becasue the lobby looks new.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223140-r211231229-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>211231229</t>
+  </si>
+  <si>
+    <t>06/20/2014</t>
+  </si>
+  <si>
+    <t>Stay here!!</t>
+  </si>
+  <si>
+    <t>We use this reservation for work mostly. It is one of the best choice hotels. The staff greats you with a smile and wastes no time getting you in your room. I request to stay here over hotels like the Marriott and Sheraton each and every time.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>Donovan S, General Manager at Comfort Suites, responded to this reviewResponded June 24, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 24, 2014</t>
+  </si>
+  <si>
+    <t>We use this reservation for work mostly. It is one of the best choice hotels. The staff greats you with a smile and wastes no time getting you in your room. I request to stay here over hotels like the Marriott and Sheraton each and every time.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223140-r194180752-Comfort_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -653,6 +962,65 @@
     <t>This hotel is located in an ideal location right off the interstate.  When I checked into the hotel the man at the front desk was exceptionally helpful.  He printed off directions for me and provided a list of places to eat.  The room was clean and the shower pressure in the bathroom was perfect.  The only thing I didn't enjoy was the breakfast.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223140-r163368580-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>163368580</t>
+  </si>
+  <si>
+    <t>06/08/2013</t>
+  </si>
+  <si>
+    <t>Ok hotel for business</t>
+  </si>
+  <si>
+    <t>This hotel is OK for a short stay.  When I arrived and got my room key, the clerk gave me someones room.    I talked to the clerk who was very apologetic and assured me it was only a mistake. I had no other problems with any thing else.  The beds were very comfortable and the room was clean.  The price was reasonable and the staff was friendly.  They have a good breakfast in the mornings.  I don't drink but on Tues and Wed between 5 and 7 they give you two free beers.MoreShow less</t>
+  </si>
+  <si>
+    <t>Donovan S, General Manager at Comfort Suites, responded to this reviewResponded June 18, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 18, 2013</t>
+  </si>
+  <si>
+    <t>This hotel is OK for a short stay.  When I arrived and got my room key, the clerk gave me someones room.    I talked to the clerk who was very apologetic and assured me it was only a mistake. I had no other problems with any thing else.  The beds were very comfortable and the room was clean.  The price was reasonable and the staff was friendly.  They have a good breakfast in the mornings.  I don't drink but on Tues and Wed between 5 and 7 they give you two free beers.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223140-r159580251-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>159580251</t>
+  </si>
+  <si>
+    <t>05/03/2013</t>
+  </si>
+  <si>
+    <t>Small Town Feel</t>
+  </si>
+  <si>
+    <t>This hotel looks pretty on first appearances. The big sign outside the hotel that said it needed housekeeping staff --  was an obvious clue. It took a good while for hotel staff to appear to check us into the hotel. 
+This hotel is very affordable at full price for the Houston area. The trade off is that some of the rooms are dated and the housekeeping staff is too busy to detail the rooms. 
+The internet and parking is free and easily accessible.
+There is an affordable casual TEX-MEX restaurant across a four lane road and a gas station nearby. A somewhat farther walk is a typical fast food hamburger place with gas and convenience store. There is nothing else nearby and you need a car to get around. I hope this helps you make a good decision so you are happy with your stay. I could stay in this hotel everyday and be okay with my decision. There are nicer hotels in the same area but on the other side of the highway that cost a little more but are cleaner and more modern and social status oriented.
+ In the end, I have to say this stay was a bit of a shock because it was very uncoordinated for a hotel of this chain. I have mercy because I want mercy but I hope they will supervise the children of the hotel staff in the future because --  that...This hotel looks pretty on first appearances. The big sign outside the hotel that said it needed housekeeping staff --  was an obvious clue. It took a good while for hotel staff to appear to check us into the hotel. This hotel is very affordable at full price for the Houston area. The trade off is that some of the rooms are dated and the housekeeping staff is too busy to detail the rooms. The internet and parking is free and easily accessible.There is an affordable casual TEX-MEX restaurant across a four lane road and a gas station nearby. A somewhat farther walk is a typical fast food hamburger place with gas and convenience store. There is nothing else nearby and you need a car to get around. I hope this helps you make a good decision so you are happy with your stay. I could stay in this hotel everyday and be okay with my decision. There are nicer hotels in the same area but on the other side of the highway that cost a little more but are cleaner and more modern and social status oriented. In the end, I have to say this stay was a bit of a shock because it was very uncoordinated for a hotel of this chain. I have mercy because I want mercy but I hope they will supervise the children of the hotel staff in the future because --  that was the most scary part of my hotel stay -- worrying about the unsupervised children of the hotel staff who kept eating the breakfast leaving the guests with nothing. I didn't report it to the management because I already saw the attitude there on a previous problem and maybe the management is also the owner. Clearly they knew about unsupervised children of the staff and did not care. If the mother had no childcare and the hotel needed the rooms cleaned, then they let the kids play with the food and computers -- forget about the guests, right? The guests they really care about are those who pay more during the week then leave on the weekend. The weekend guests are just a little gravy on their profits. That is basically what I was told in a nutshell by a staff member. Of course well-traveled guest already know this information but if I treated my short term customers with the same attitude, I would have no customers at all. A big chain name feeds customers to this hotel. People who only care about a bed and free food -- and a cheap price -- would love this hotel. You will feel right at home because it truly is like living at home. The male guests loved this hotel. Please read the previous reviews from other guests to get the big picture. If you booked this hotel at a cheap price, good! You will be okay. If your stay is better than mine, tell us about it so the hotel learns that we guests have a voice.  I didn't feel the situation was anyone's fault. I was learning the Houston area so of course I wanted the most benefits for the dollars spent. I have gotten better for the same price. Just be happy if your experience is better than mine and tell us about it on Trip Advisor.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>Donovan S, General Manager at Comfort Suites, responded to this reviewResponded May 8, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 8, 2013</t>
+  </si>
+  <si>
+    <t>This hotel looks pretty on first appearances. The big sign outside the hotel that said it needed housekeeping staff --  was an obvious clue. It took a good while for hotel staff to appear to check us into the hotel. 
+This hotel is very affordable at full price for the Houston area. The trade off is that some of the rooms are dated and the housekeeping staff is too busy to detail the rooms. 
+The internet and parking is free and easily accessible.
+There is an affordable casual TEX-MEX restaurant across a four lane road and a gas station nearby. A somewhat farther walk is a typical fast food hamburger place with gas and convenience store. There is nothing else nearby and you need a car to get around. I hope this helps you make a good decision so you are happy with your stay. I could stay in this hotel everyday and be okay with my decision. There are nicer hotels in the same area but on the other side of the highway that cost a little more but are cleaner and more modern and social status oriented.
+ In the end, I have to say this stay was a bit of a shock because it was very uncoordinated for a hotel of this chain. I have mercy because I want mercy but I hope they will supervise the children of the hotel staff in the future because --  that...This hotel looks pretty on first appearances. The big sign outside the hotel that said it needed housekeeping staff --  was an obvious clue. It took a good while for hotel staff to appear to check us into the hotel. This hotel is very affordable at full price for the Houston area. The trade off is that some of the rooms are dated and the housekeeping staff is too busy to detail the rooms. The internet and parking is free and easily accessible.There is an affordable casual TEX-MEX restaurant across a four lane road and a gas station nearby. A somewhat farther walk is a typical fast food hamburger place with gas and convenience store. There is nothing else nearby and you need a car to get around. I hope this helps you make a good decision so you are happy with your stay. I could stay in this hotel everyday and be okay with my decision. There are nicer hotels in the same area but on the other side of the highway that cost a little more but are cleaner and more modern and social status oriented. In the end, I have to say this stay was a bit of a shock because it was very uncoordinated for a hotel of this chain. I have mercy because I want mercy but I hope they will supervise the children of the hotel staff in the future because --  that was the most scary part of my hotel stay -- worrying about the unsupervised children of the hotel staff who kept eating the breakfast leaving the guests with nothing. I didn't report it to the management because I already saw the attitude there on a previous problem and maybe the management is also the owner. Clearly they knew about unsupervised children of the staff and did not care. If the mother had no childcare and the hotel needed the rooms cleaned, then they let the kids play with the food and computers -- forget about the guests, right? The guests they really care about are those who pay more during the week then leave on the weekend. The weekend guests are just a little gravy on their profits. That is basically what I was told in a nutshell by a staff member. Of course well-traveled guest already know this information but if I treated my short term customers with the same attitude, I would have no customers at all. A big chain name feeds customers to this hotel. People who only care about a bed and free food -- and a cheap price -- would love this hotel. You will feel right at home because it truly is like living at home. The male guests loved this hotel. Please read the previous reviews from other guests to get the big picture. If you booked this hotel at a cheap price, good! You will be okay. If your stay is better than mine, tell us about it so the hotel learns that we guests have a voice.  I didn't feel the situation was anyone's fault. I was learning the Houston area so of course I wanted the most benefits for the dollars spent. I have gotten better for the same price. Just be happy if your experience is better than mine and tell us about it on Trip Advisor.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223140-r156106436-Comfort_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -713,6 +1081,45 @@
     <t>July 2012</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223140-r128949401-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>128949401</t>
+  </si>
+  <si>
+    <t>04/27/2012</t>
+  </si>
+  <si>
+    <t>Average hotel.</t>
+  </si>
+  <si>
+    <t>The pros are a fairly decent breakfast.  Good sized rooms.  Comfortable King sized beds.The cons are it appears that not much is done to keep the facility maintained.  90 percent of the twenty odd parking lot lights were out.  The water pressure for showers is low.  My particular bathroom was for the elderly or handicapped, which I did not want but was stuck with, but did not have non-skid material in the bottom of the tub so I actually slipped and fell the first morning I showered.  The in-room refrigerator was a solid block of Ice so I defrosted it myself.  Also getting out of the parking lot in the morning during rush hour can be tricky if one needs to head east back towards Houston.  The swimming pool area is somewhat run down and the outdoor hot tub was out of order the entire week I stayed there.  A bag of trash was left on the patio area all week.  Overall I was not impressed with the cleanliness and upkeep.  The landscaping was pretty and they had a happy hour with complimentary beer but I would have traded that for some non-slip material in my bath tub.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>The pros are a fairly decent breakfast.  Good sized rooms.  Comfortable King sized beds.The cons are it appears that not much is done to keep the facility maintained.  90 percent of the twenty odd parking lot lights were out.  The water pressure for showers is low.  My particular bathroom was for the elderly or handicapped, which I did not want but was stuck with, but did not have non-skid material in the bottom of the tub so I actually slipped and fell the first morning I showered.  The in-room refrigerator was a solid block of Ice so I defrosted it myself.  Also getting out of the parking lot in the morning during rush hour can be tricky if one needs to head east back towards Houston.  The swimming pool area is somewhat run down and the outdoor hot tub was out of order the entire week I stayed there.  A bag of trash was left on the patio area all week.  Overall I was not impressed with the cleanliness and upkeep.  The landscaping was pretty and they had a happy hour with complimentary beer but I would have traded that for some non-slip material in my bath tub.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223140-r125519193-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>125519193</t>
+  </si>
+  <si>
+    <t>03/02/2012</t>
+  </si>
+  <si>
+    <t>Great place right off Beltway 8!</t>
+  </si>
+  <si>
+    <t>Pros:- Clean throughout- Large rooms (suites with sofa area)- Non-smoking throughout- Free parking- Free internet (hard to connect)- Good free breakfast (hot &amp; cold items)- Office with printing- 3-story elevator- Internal corridors- Very near 2 gas stations &amp; McDonald's- Very close to Beltway 8- Many TV choices- Refrigerator &amp; microwave- Good bedsCons:- No flat screen TVSummary:- Good place to stay in North/West Houston near churches &amp; off Highway 8</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223140-r123172210-Comfort_Suites-Houston_Texas.html</t>
   </si>
   <si>
@@ -768,6 +1175,47 @@
   </si>
   <si>
     <t>My stay at this establishment was wonderful.  The staff was very kind and helpful. The complementary breakfast was very good as well.  I had made the mistake of NOT booking my second week of business stay with this hotel and went with another nearby hotel which was was just about the same in price per night - but the BIG difference was the PEOPLE factor.  The hosts at this establishment were very people friendly and were not afraid to speak to you and did not ignore you as you walked in the door.  I am sad to say that the other hotel that I did stay at for my second week were NOT very friendly – and a COMPLETE turn off.  I will not be staying at the other hotel next time and instead be staying this hotel.  Excellent service – it is something that is often an understatement at most establishments nowadays….but not at this hotel.  Nicely done!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223140-r61744253-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>61744253</t>
+  </si>
+  <si>
+    <t>04/17/2010</t>
+  </si>
+  <si>
+    <t>It was very good</t>
+  </si>
+  <si>
+    <t>The staff went out of there way to make my stay a very good one if we needed any thing they made sure we got what we needed.</t>
+  </si>
+  <si>
+    <t>February 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223140-r38886035-Comfort_Suites-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>38886035</t>
+  </si>
+  <si>
+    <t>08/26/2009</t>
+  </si>
+  <si>
+    <t>1 star motel for a price of a 5 star hotel</t>
+  </si>
+  <si>
+    <t>I stayed in the hotel for 6 nights.  It was a business trip, so I did not really care much about hotel room, as long as it provides minimum necessities and close to the facility I was sent to work at for a week.  There is nothing "suite" about this hotel, except they crammed a sofa and a coffee table into the room.  Everything in the room is old, very old or in need of repair / replacement.  Air conditioner has trash inside, very old and loud.  Iron did not work properly, there was no shampoo left in the bathroom on the second day of my stay there.  Overall, nothing was terribly wrong, but everything you'd expect from a 1 star motel, except for the price.  
+My company has some kind of discount agreement with that chain.  So with that corporate discount, 3 weeks advance reservation I got a rate of $135 a night plus tax.  I got into the hotel and there was a line of people at check in.  For some reason computer was running very slow at the front desk, so it took 20 minutes for the clerk to check in every person in line.  Person in front of me was an underage girl (she had to explain the clerk why she had an underage driver license) who did not have reservation or even credit card.  To my surprise she got a rate of $99 a night....I stayed in the hotel for 6 nights.  It was a business trip, so I did not really care much about hotel room, as long as it provides minimum necessities and close to the facility I was sent to work at for a week.  There is nothing "suite" about this hotel, except they crammed a sofa and a coffee table into the room.  Everything in the room is old, very old or in need of repair / replacement.  Air conditioner has trash inside, very old and loud.  Iron did not work properly, there was no shampoo left in the bathroom on the second day of my stay there.  Overall, nothing was terribly wrong, but everything you'd expect from a 1 star motel, except for the price.  My company has some kind of discount agreement with that chain.  So with that corporate discount, 3 weeks advance reservation I got a rate of $135 a night plus tax.  I got into the hotel and there was a line of people at check in.  For some reason computer was running very slow at the front desk, so it took 20 minutes for the clerk to check in every person in line.  Person in front of me was an underage girl (she had to explain the clerk why she had an underage driver license) who did not have reservation or even credit card.  To my surprise she got a rate of $99 a night.  So $99 in cash is what you get charged for one night if you just show up.  Guy with corporate discount and a 6-night stay gets charged $36 more... Hmmm... Well, maybe a guy with a corporate discount will go some place else next time.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2009</t>
+  </si>
+  <si>
+    <t>I stayed in the hotel for 6 nights.  It was a business trip, so I did not really care much about hotel room, as long as it provides minimum necessities and close to the facility I was sent to work at for a week.  There is nothing "suite" about this hotel, except they crammed a sofa and a coffee table into the room.  Everything in the room is old, very old or in need of repair / replacement.  Air conditioner has trash inside, very old and loud.  Iron did not work properly, there was no shampoo left in the bathroom on the second day of my stay there.  Overall, nothing was terribly wrong, but everything you'd expect from a 1 star motel, except for the price.  
+My company has some kind of discount agreement with that chain.  So with that corporate discount, 3 weeks advance reservation I got a rate of $135 a night plus tax.  I got into the hotel and there was a line of people at check in.  For some reason computer was running very slow at the front desk, so it took 20 minutes for the clerk to check in every person in line.  Person in front of me was an underage girl (she had to explain the clerk why she had an underage driver license) who did not have reservation or even credit card.  To my surprise she got a rate of $99 a night....I stayed in the hotel for 6 nights.  It was a business trip, so I did not really care much about hotel room, as long as it provides minimum necessities and close to the facility I was sent to work at for a week.  There is nothing "suite" about this hotel, except they crammed a sofa and a coffee table into the room.  Everything in the room is old, very old or in need of repair / replacement.  Air conditioner has trash inside, very old and loud.  Iron did not work properly, there was no shampoo left in the bathroom on the second day of my stay there.  Overall, nothing was terribly wrong, but everything you'd expect from a 1 star motel, except for the price.  My company has some kind of discount agreement with that chain.  So with that corporate discount, 3 weeks advance reservation I got a rate of $135 a night plus tax.  I got into the hotel and there was a line of people at check in.  For some reason computer was running very slow at the front desk, so it took 20 minutes for the clerk to check in every person in line.  Person in front of me was an underage girl (she had to explain the clerk why she had an underage driver license) who did not have reservation or even credit card.  To my surprise she got a rate of $99 a night.  So $99 in cash is what you get charged for one night if you just show up.  Guy with corporate discount and a 6-night stay gets charged $36 more... Hmmm... Well, maybe a guy with a corporate discount will go some place else next time.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d223140-r20832609-Comfort_Suites-Houston_Texas.html</t>
@@ -1354,7 +1802,7 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -1370,52 +1818,58 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
         <v>53</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>54</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>55</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>56</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
         <v>57</v>
       </c>
-      <c r="M3" t="n">
-        <v>4</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>58</v>
       </c>
-      <c r="O3" t="s">
-        <v>59</v>
-      </c>
-      <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
-      <c r="R3" t="n">
-        <v>4</v>
-      </c>
+      <c r="P3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3</v>
+      </c>
+      <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s"/>
-      <c r="X3" t="s"/>
+      <c r="W3" t="s">
+        <v>59</v>
+      </c>
+      <c r="X3" t="s">
+        <v>60</v>
+      </c>
       <c r="Y3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
@@ -1431,7 +1885,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -1440,26 +1894,22 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
-      <c r="N4" t="s">
-        <v>65</v>
-      </c>
-      <c r="O4" t="s">
-        <v>66</v>
-      </c>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
@@ -1469,14 +1919,10 @@
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s">
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
         <v>67</v>
-      </c>
-      <c r="X4" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="5">
@@ -1492,52 +1938,52 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
         <v>70</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>71</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>72</v>
-      </c>
-      <c r="K5" t="s">
-        <v>73</v>
-      </c>
-      <c r="L5" t="s">
-        <v>74</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O5" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
-      <c r="R5" t="s"/>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s">
-        <v>76</v>
-      </c>
-      <c r="X5" t="s">
-        <v>77</v>
-      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
@@ -1553,54 +1999,52 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s">
         <v>79</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
         <v>80</v>
       </c>
-      <c r="J6" t="s">
-        <v>81</v>
-      </c>
-      <c r="K6" t="s">
-        <v>82</v>
-      </c>
-      <c r="L6" t="s">
-        <v>83</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>84</v>
-      </c>
       <c r="O6" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
-      <c r="R6" t="n">
-        <v>4</v>
-      </c>
-      <c r="S6" t="n">
-        <v>5</v>
-      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>5</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s"/>
-      <c r="X6" t="s"/>
+      <c r="W6" t="s">
+        <v>81</v>
+      </c>
+      <c r="X6" t="s">
+        <v>82</v>
+      </c>
       <c r="Y6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7">
@@ -1616,52 +2060,58 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" t="s">
         <v>87</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="L7" t="s">
         <v>88</v>
-      </c>
-      <c r="J7" t="s">
-        <v>89</v>
-      </c>
-      <c r="K7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L7" t="s">
-        <v>91</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="O7" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="P7" t="n">
         <v>4</v>
       </c>
-      <c r="Q7" t="s"/>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
       <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s"/>
-      <c r="X7" t="s"/>
+      <c r="W7" t="s">
+        <v>90</v>
+      </c>
+      <c r="X7" t="s">
+        <v>91</v>
+      </c>
       <c r="Y7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8">
@@ -1698,33 +2148,37 @@
         <v>97</v>
       </c>
       <c r="M8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N8" t="s">
         <v>98</v>
       </c>
       <c r="O8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P8" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>5</v>
-      </c>
-      <c r="R8" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>4</v>
+      </c>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s"/>
-      <c r="X8" t="s"/>
+      <c r="W8" t="s">
+        <v>99</v>
+      </c>
+      <c r="X8" t="s">
+        <v>100</v>
+      </c>
       <c r="Y8" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9">
@@ -1740,7 +2194,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -1749,45 +2203,43 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J9" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K9" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="L9" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="O9" t="s">
-        <v>92</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
-      <c r="R9" t="n">
-        <v>3</v>
-      </c>
+      <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>3</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s"/>
-      <c r="X9" t="s"/>
+      <c r="W9" t="s">
+        <v>99</v>
+      </c>
+      <c r="X9" t="s">
+        <v>100</v>
+      </c>
       <c r="Y9" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10">
@@ -1803,7 +2255,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -1812,34 +2264,34 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="J10" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="K10" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="L10" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="O10" t="s">
-        <v>111</v>
-      </c>
-      <c r="P10" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>5</v>
-      </c>
-      <c r="R10" t="s"/>
-      <c r="S10" t="s"/>
+        <v>115</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
         <v>5</v>
@@ -1850,7 +2302,7 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11">
@@ -1866,7 +2318,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -1875,47 +2327,43 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
+        <v>118</v>
+      </c>
+      <c r="J11" t="s">
+        <v>119</v>
+      </c>
+      <c r="K11" t="s">
+        <v>120</v>
+      </c>
+      <c r="L11" t="s">
+        <v>121</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
         <v>114</v>
       </c>
-      <c r="J11" t="s">
-        <v>115</v>
-      </c>
-      <c r="K11" t="s">
-        <v>116</v>
-      </c>
-      <c r="L11" t="s">
-        <v>117</v>
-      </c>
-      <c r="M11" t="n">
-        <v>2</v>
-      </c>
-      <c r="N11" t="s">
-        <v>110</v>
-      </c>
       <c r="O11" t="s">
-        <v>59</v>
-      </c>
-      <c r="P11" t="s"/>
-      <c r="Q11" t="n">
-        <v>3</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s">
-        <v>118</v>
-      </c>
-      <c r="X11" t="s">
-        <v>119</v>
-      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12">
@@ -1931,7 +2379,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -1940,25 +2388,25 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
+        <v>124</v>
+      </c>
+      <c r="J12" t="s">
+        <v>125</v>
+      </c>
+      <c r="K12" t="s">
+        <v>126</v>
+      </c>
+      <c r="L12" t="s">
+        <v>127</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>128</v>
+      </c>
+      <c r="O12" t="s">
         <v>122</v>
-      </c>
-      <c r="J12" t="s">
-        <v>123</v>
-      </c>
-      <c r="K12" t="s">
-        <v>124</v>
-      </c>
-      <c r="L12" t="s">
-        <v>125</v>
-      </c>
-      <c r="M12" t="n">
-        <v>3</v>
-      </c>
-      <c r="N12" t="s">
-        <v>126</v>
-      </c>
-      <c r="O12" t="s">
-        <v>59</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -1970,13 +2418,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="X12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="Y12" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13">
@@ -1992,7 +2440,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2001,43 +2449,49 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="J13" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K13" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="L13" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="O13" t="s">
-        <v>59</v>
+        <v>137</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
-      <c r="R13" t="s"/>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
       <c r="S13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s"/>
-      <c r="X13" t="s"/>
+      <c r="W13" t="s">
+        <v>129</v>
+      </c>
+      <c r="X13" t="s">
+        <v>130</v>
+      </c>
       <c r="Y13" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14">
@@ -2053,7 +2507,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2062,33 +2516,33 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="J14" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="K14" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="L14" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="O14" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="P14" t="n">
         <v>5</v>
       </c>
-      <c r="Q14" t="s"/>
-      <c r="R14" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
@@ -2100,7 +2554,7 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15">
@@ -2116,7 +2570,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2125,39 +2579,45 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="J15" t="s">
+        <v>147</v>
+      </c>
+      <c r="K15" t="s">
+        <v>148</v>
+      </c>
+      <c r="L15" t="s">
+        <v>149</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
         <v>144</v>
       </c>
-      <c r="K15" t="s">
-        <v>145</v>
-      </c>
-      <c r="L15" t="s">
-        <v>146</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="s">
-        <v>147</v>
-      </c>
       <c r="O15" t="s">
-        <v>92</v>
-      </c>
-      <c r="P15" t="s"/>
+        <v>122</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3</v>
+      </c>
       <c r="Q15" t="s"/>
-      <c r="R15" t="s"/>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16">
@@ -2173,7 +2633,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2182,31 +2642,33 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="J16" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K16" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L16" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="O16" t="s">
-        <v>59</v>
-      </c>
-      <c r="P16" t="s"/>
-      <c r="Q16" t="s"/>
-      <c r="R16" t="n">
-        <v>5</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="s"/>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
@@ -2218,7 +2680,7 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17">
@@ -2234,7 +2696,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2243,22 +2705,26 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
+        <v>159</v>
+      </c>
+      <c r="J17" t="s">
+        <v>160</v>
+      </c>
+      <c r="K17" t="s">
+        <v>161</v>
+      </c>
+      <c r="L17" t="s">
+        <v>162</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
         <v>156</v>
       </c>
-      <c r="J17" t="s">
-        <v>157</v>
-      </c>
-      <c r="K17" t="s">
-        <v>158</v>
-      </c>
-      <c r="L17" t="s">
-        <v>159</v>
-      </c>
-      <c r="M17" t="n">
-        <v>2</v>
-      </c>
-      <c r="N17" t="s"/>
-      <c r="O17" t="s"/>
+      <c r="O17" t="s">
+        <v>74</v>
+      </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
@@ -2268,12 +2734,8 @@
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s">
-        <v>160</v>
-      </c>
-      <c r="X17" t="s">
-        <v>161</v>
-      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
       <c r="Y17" t="s">
         <v>162</v>
       </c>
@@ -2303,46 +2765,36 @@
         <v>164</v>
       </c>
       <c r="J18" t="s">
+        <v>160</v>
+      </c>
+      <c r="K18" t="s">
         <v>165</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>166</v>
-      </c>
-      <c r="L18" t="s">
-        <v>167</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="O18" t="s">
-        <v>92</v>
-      </c>
-      <c r="P18" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>5</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
       <c r="R18" t="s"/>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>5</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s">
-        <v>169</v>
-      </c>
-      <c r="X18" t="s">
-        <v>170</v>
-      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19">
@@ -2358,58 +2810,56 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
+        <v>168</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>169</v>
+      </c>
+      <c r="J19" t="s">
+        <v>170</v>
+      </c>
+      <c r="K19" t="s">
+        <v>171</v>
+      </c>
+      <c r="L19" t="s">
         <v>172</v>
       </c>
-      <c r="G19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I19" t="s">
-        <v>173</v>
-      </c>
-      <c r="J19" t="s">
-        <v>174</v>
-      </c>
-      <c r="K19" t="s">
-        <v>175</v>
-      </c>
-      <c r="L19" t="s">
-        <v>176</v>
-      </c>
       <c r="M19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="O19" t="s">
-        <v>92</v>
-      </c>
-      <c r="P19" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q19" t="s"/>
-      <c r="R19" t="n">
-        <v>4</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>3</v>
+      </c>
+      <c r="R19" t="s"/>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="X19" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="Y19" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20">
@@ -2425,62 +2875,52 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
+        <v>176</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>177</v>
+      </c>
+      <c r="J20" t="s">
+        <v>178</v>
+      </c>
+      <c r="K20" t="s">
+        <v>179</v>
+      </c>
+      <c r="L20" t="s">
+        <v>180</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
         <v>181</v>
       </c>
-      <c r="G20" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="O20" t="s">
+        <v>74</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
         <v>182</v>
       </c>
-      <c r="J20" t="s">
+      <c r="X20" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y20" t="s">
         <v>183</v>
-      </c>
-      <c r="K20" t="s">
-        <v>184</v>
-      </c>
-      <c r="L20" t="s">
-        <v>185</v>
-      </c>
-      <c r="M20" t="n">
-        <v>4</v>
-      </c>
-      <c r="N20" t="s">
-        <v>186</v>
-      </c>
-      <c r="O20" t="s">
-        <v>66</v>
-      </c>
-      <c r="P20" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>4</v>
-      </c>
-      <c r="R20" t="n">
-        <v>3</v>
-      </c>
-      <c r="S20" t="n">
-        <v>5</v>
-      </c>
-      <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>4</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="s">
-        <v>187</v>
-      </c>
-      <c r="X20" t="s">
-        <v>188</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="21">
@@ -2496,7 +2936,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2505,53 +2945,43 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="J21" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="K21" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="L21" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="M21" t="n">
         <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="O21" t="s">
-        <v>111</v>
-      </c>
-      <c r="P21" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>3</v>
-      </c>
-      <c r="R21" t="n">
-        <v>2</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
       <c r="S21" t="n">
         <v>3</v>
       </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s">
-        <v>196</v>
-      </c>
-      <c r="X21" t="s">
-        <v>197</v>
-      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22">
@@ -2567,7 +2997,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -2576,53 +3006,39 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="J22" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="K22" t="s">
-        <v>12</v>
+        <v>193</v>
       </c>
       <c r="L22" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="O22" t="s">
-        <v>59</v>
-      </c>
-      <c r="P22" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>5</v>
-      </c>
-      <c r="R22" t="n">
-        <v>5</v>
-      </c>
-      <c r="S22" t="n">
-        <v>5</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>5</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s">
-        <v>204</v>
-      </c>
-      <c r="X22" t="s">
-        <v>205</v>
-      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23">
@@ -2638,7 +3054,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -2647,25 +3063,25 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="J23" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="K23" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="L23" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="M23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="O23" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -2676,14 +3092,10 @@
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s">
-        <v>213</v>
-      </c>
-      <c r="X23" t="s">
-        <v>214</v>
-      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
     </row>
     <row r="24">
@@ -2699,7 +3111,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -2708,37 +3120,37 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="J24" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="K24" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="L24" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="M24" t="n">
-        <v>3</v>
-      </c>
-      <c r="N24" t="s"/>
-      <c r="O24" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>205</v>
+      </c>
+      <c r="O24" t="s">
+        <v>74</v>
+      </c>
       <c r="P24" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q24" t="s"/>
       <c r="R24" t="n">
         <v>3</v>
       </c>
-      <c r="S24" t="n">
-        <v>3</v>
-      </c>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2746,7 +3158,7 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
     </row>
     <row r="25">
@@ -2762,7 +3174,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -2771,49 +3183,39 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="J25" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="K25" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="L25" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="M25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="O25" t="s">
-        <v>111</v>
-      </c>
-      <c r="P25" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>3</v>
-      </c>
-      <c r="R25" t="n">
-        <v>5</v>
-      </c>
-      <c r="S25" t="n">
-        <v>5</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="n">
-        <v>5</v>
-      </c>
+      <c r="U25" t="s"/>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26">
@@ -2829,7 +3231,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -2838,41 +3240,35 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="J26" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="K26" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="L26" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="M26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="O26" t="s">
-        <v>92</v>
-      </c>
-      <c r="P26" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>3</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
       <c r="R26" t="n">
-        <v>3</v>
-      </c>
-      <c r="S26" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S26" t="s"/>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2880,7 +3276,7 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27">
@@ -2896,7 +3292,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -2905,45 +3301,43 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="J27" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="K27" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="L27" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="M27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="O27" t="s">
-        <v>92</v>
-      </c>
-      <c r="P27" t="n">
-        <v>4</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
       <c r="R27" t="s"/>
-      <c r="S27" t="n">
-        <v>4</v>
-      </c>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="n">
-        <v>5</v>
-      </c>
+      <c r="U27" t="s"/>
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s"/>
-      <c r="X27" t="s"/>
+      <c r="W27" t="s">
+        <v>226</v>
+      </c>
+      <c r="X27" t="s">
+        <v>227</v>
+      </c>
       <c r="Y27" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="28">
@@ -2959,7 +3353,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -2968,49 +3362,49 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="J28" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="K28" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="L28" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="M28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N28" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="O28" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="P28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q28" t="n">
-        <v>4</v>
-      </c>
-      <c r="R28" t="n">
-        <v>4</v>
-      </c>
-      <c r="S28" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s"/>
-      <c r="X28" t="s"/>
+      <c r="W28" t="s">
+        <v>235</v>
+      </c>
+      <c r="X28" t="s">
+        <v>236</v>
+      </c>
       <c r="Y28" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="29">
@@ -3026,7 +3420,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3035,49 +3429,39 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="J29" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="K29" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="L29" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="M29" t="n">
         <v>2</v>
       </c>
-      <c r="N29" t="s">
-        <v>251</v>
-      </c>
-      <c r="O29" t="s">
-        <v>59</v>
-      </c>
-      <c r="P29" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>3</v>
-      </c>
-      <c r="R29" t="n">
-        <v>3</v>
-      </c>
-      <c r="S29" t="n">
-        <v>2</v>
-      </c>
+      <c r="N29" t="s"/>
+      <c r="O29" t="s"/>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="n">
-        <v>3</v>
-      </c>
+      <c r="U29" t="s"/>
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s"/>
-      <c r="X29" t="s"/>
+      <c r="W29" t="s">
+        <v>243</v>
+      </c>
+      <c r="X29" t="s">
+        <v>244</v>
+      </c>
       <c r="Y29" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="30">
@@ -3093,7 +3477,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3102,22 +3486,26 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="J30" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="K30" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="L30" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="M30" t="n">
-        <v>5</v>
-      </c>
-      <c r="N30" t="s"/>
-      <c r="O30" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>251</v>
+      </c>
+      <c r="O30" t="s">
+        <v>122</v>
+      </c>
       <c r="P30" t="n">
         <v>5</v>
       </c>
@@ -3125,20 +3513,1366 @@
         <v>5</v>
       </c>
       <c r="R30" t="s"/>
-      <c r="S30" t="n">
-        <v>5</v>
-      </c>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>252</v>
+      </c>
+      <c r="X30" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>42022</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>255</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>256</v>
+      </c>
+      <c r="J31" t="s">
+        <v>257</v>
+      </c>
+      <c r="K31" t="s">
+        <v>258</v>
+      </c>
+      <c r="L31" t="s">
+        <v>259</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>260</v>
+      </c>
+      <c r="O31" t="s">
+        <v>122</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>261</v>
+      </c>
+      <c r="X31" t="s">
+        <v>262</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>42022</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>264</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>265</v>
+      </c>
+      <c r="J32" t="s">
+        <v>266</v>
+      </c>
+      <c r="K32" t="s">
+        <v>267</v>
+      </c>
+      <c r="L32" t="s">
+        <v>268</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2</v>
+      </c>
+      <c r="N32" t="s">
+        <v>269</v>
+      </c>
+      <c r="O32" t="s">
+        <v>74</v>
+      </c>
+      <c r="P32" t="n">
         <v>3</v>
       </c>
-      <c r="V30" t="n">
-        <v>0</v>
-      </c>
-      <c r="W30" t="s"/>
-      <c r="X30" t="s"/>
-      <c r="Y30" t="s">
-        <v>257</v>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="n">
+        <v>1</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>2</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>270</v>
+      </c>
+      <c r="X32" t="s">
+        <v>271</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>42022</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>273</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>274</v>
+      </c>
+      <c r="J33" t="s">
+        <v>275</v>
+      </c>
+      <c r="K33" t="s">
+        <v>276</v>
+      </c>
+      <c r="L33" t="s">
+        <v>277</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>278</v>
+      </c>
+      <c r="O33" t="s">
+        <v>74</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>279</v>
+      </c>
+      <c r="X33" t="s">
+        <v>280</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>42022</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>282</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>283</v>
+      </c>
+      <c r="J34" t="s">
+        <v>284</v>
+      </c>
+      <c r="K34" t="s">
+        <v>285</v>
+      </c>
+      <c r="L34" t="s">
+        <v>286</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>287</v>
+      </c>
+      <c r="O34" t="s">
+        <v>58</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>288</v>
+      </c>
+      <c r="X34" t="s">
+        <v>289</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>42022</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>291</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>292</v>
+      </c>
+      <c r="J35" t="s">
+        <v>293</v>
+      </c>
+      <c r="K35" t="s">
+        <v>294</v>
+      </c>
+      <c r="L35" t="s">
+        <v>295</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s">
+        <v>296</v>
+      </c>
+      <c r="O35" t="s">
+        <v>137</v>
+      </c>
+      <c r="P35" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>3</v>
+      </c>
+      <c r="R35" t="n">
+        <v>2</v>
+      </c>
+      <c r="S35" t="n">
+        <v>3</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>297</v>
+      </c>
+      <c r="X35" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>42022</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>300</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>301</v>
+      </c>
+      <c r="J36" t="s">
+        <v>302</v>
+      </c>
+      <c r="K36" t="s">
+        <v>12</v>
+      </c>
+      <c r="L36" t="s">
+        <v>303</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>304</v>
+      </c>
+      <c r="O36" t="s">
+        <v>74</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>305</v>
+      </c>
+      <c r="X36" t="s">
+        <v>306</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>42022</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>308</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>309</v>
+      </c>
+      <c r="J37" t="s">
+        <v>310</v>
+      </c>
+      <c r="K37" t="s">
+        <v>311</v>
+      </c>
+      <c r="L37" t="s">
+        <v>312</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>304</v>
+      </c>
+      <c r="O37" t="s">
+        <v>74</v>
+      </c>
+      <c r="P37" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>3</v>
+      </c>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>3</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>313</v>
+      </c>
+      <c r="X37" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>42022</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>316</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>317</v>
+      </c>
+      <c r="J38" t="s">
+        <v>318</v>
+      </c>
+      <c r="K38" t="s">
+        <v>319</v>
+      </c>
+      <c r="L38" t="s">
+        <v>320</v>
+      </c>
+      <c r="M38" t="n">
+        <v>2</v>
+      </c>
+      <c r="N38" t="s">
+        <v>321</v>
+      </c>
+      <c r="O38" t="s">
+        <v>74</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>3</v>
+      </c>
+      <c r="R38" t="n">
+        <v>3</v>
+      </c>
+      <c r="S38" t="n">
+        <v>3</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>2</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>322</v>
+      </c>
+      <c r="X38" t="s">
+        <v>323</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>42022</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>325</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>326</v>
+      </c>
+      <c r="J39" t="s">
+        <v>327</v>
+      </c>
+      <c r="K39" t="s">
+        <v>328</v>
+      </c>
+      <c r="L39" t="s">
+        <v>329</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>330</v>
+      </c>
+      <c r="O39" t="s">
+        <v>122</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>331</v>
+      </c>
+      <c r="X39" t="s">
+        <v>332</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>42022</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>334</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>335</v>
+      </c>
+      <c r="J40" t="s">
+        <v>336</v>
+      </c>
+      <c r="K40" t="s">
+        <v>337</v>
+      </c>
+      <c r="L40" t="s">
+        <v>338</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="s"/>
+      <c r="O40" t="s"/>
+      <c r="P40" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>3</v>
+      </c>
+      <c r="R40" t="n">
+        <v>3</v>
+      </c>
+      <c r="S40" t="n">
+        <v>3</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>3</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>42022</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>339</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>340</v>
+      </c>
+      <c r="J41" t="s">
+        <v>341</v>
+      </c>
+      <c r="K41" t="s">
+        <v>342</v>
+      </c>
+      <c r="L41" t="s">
+        <v>343</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>344</v>
+      </c>
+      <c r="O41" t="s">
+        <v>137</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>3</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>42022</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>345</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>346</v>
+      </c>
+      <c r="J42" t="s">
+        <v>347</v>
+      </c>
+      <c r="K42" t="s">
+        <v>348</v>
+      </c>
+      <c r="L42" t="s">
+        <v>349</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3</v>
+      </c>
+      <c r="N42" t="s">
+        <v>350</v>
+      </c>
+      <c r="O42" t="s">
+        <v>74</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>3</v>
+      </c>
+      <c r="R42" t="n">
+        <v>2</v>
+      </c>
+      <c r="S42" t="n">
+        <v>2</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>3</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42022</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>352</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>353</v>
+      </c>
+      <c r="J43" t="s">
+        <v>354</v>
+      </c>
+      <c r="K43" t="s">
+        <v>355</v>
+      </c>
+      <c r="L43" t="s">
+        <v>356</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>357</v>
+      </c>
+      <c r="O43" t="s">
+        <v>74</v>
+      </c>
+      <c r="P43" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>4</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>4</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>4</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>42022</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>358</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>359</v>
+      </c>
+      <c r="J44" t="s">
+        <v>360</v>
+      </c>
+      <c r="K44" t="s">
+        <v>361</v>
+      </c>
+      <c r="L44" t="s">
+        <v>362</v>
+      </c>
+      <c r="M44" t="n">
+        <v>2</v>
+      </c>
+      <c r="N44" t="s">
+        <v>363</v>
+      </c>
+      <c r="O44" t="s">
+        <v>122</v>
+      </c>
+      <c r="P44" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>3</v>
+      </c>
+      <c r="R44" t="n">
+        <v>3</v>
+      </c>
+      <c r="S44" t="n">
+        <v>1</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>2</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>42022</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>364</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>365</v>
+      </c>
+      <c r="J45" t="s">
+        <v>366</v>
+      </c>
+      <c r="K45" t="s">
+        <v>367</v>
+      </c>
+      <c r="L45" t="s">
+        <v>368</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>369</v>
+      </c>
+      <c r="O45" t="s">
+        <v>122</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>42022</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>370</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>371</v>
+      </c>
+      <c r="J46" t="s">
+        <v>372</v>
+      </c>
+      <c r="K46" t="s">
+        <v>373</v>
+      </c>
+      <c r="L46" t="s">
+        <v>374</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>375</v>
+      </c>
+      <c r="O46" t="s">
+        <v>74</v>
+      </c>
+      <c r="P46" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>42022</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>377</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>378</v>
+      </c>
+      <c r="J47" t="s">
+        <v>379</v>
+      </c>
+      <c r="K47" t="s">
+        <v>380</v>
+      </c>
+      <c r="L47" t="s">
+        <v>381</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>382</v>
+      </c>
+      <c r="O47" t="s">
+        <v>74</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>42022</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>383</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>384</v>
+      </c>
+      <c r="J48" t="s">
+        <v>385</v>
+      </c>
+      <c r="K48" t="s">
+        <v>386</v>
+      </c>
+      <c r="L48" t="s">
+        <v>387</v>
+      </c>
+      <c r="M48" t="n">
+        <v>2</v>
+      </c>
+      <c r="N48" t="s">
+        <v>388</v>
+      </c>
+      <c r="O48" t="s">
+        <v>74</v>
+      </c>
+      <c r="P48" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>2</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>2</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>1</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>42022</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>390</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>391</v>
+      </c>
+      <c r="J49" t="s">
+        <v>392</v>
+      </c>
+      <c r="K49" t="s">
+        <v>393</v>
+      </c>
+      <c r="L49" t="s">
+        <v>394</v>
+      </c>
+      <c r="M49" t="n">
+        <v>2</v>
+      </c>
+      <c r="N49" t="s">
+        <v>395</v>
+      </c>
+      <c r="O49" t="s">
+        <v>74</v>
+      </c>
+      <c r="P49" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>3</v>
+      </c>
+      <c r="R49" t="n">
+        <v>3</v>
+      </c>
+      <c r="S49" t="n">
+        <v>2</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>3</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>42022</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>397</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>398</v>
+      </c>
+      <c r="J50" t="s">
+        <v>399</v>
+      </c>
+      <c r="K50" t="s">
+        <v>400</v>
+      </c>
+      <c r="L50" t="s">
+        <v>401</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s"/>
+      <c r="O50" t="s"/>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="s"/>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>3</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>401</v>
       </c>
     </row>
   </sheetData>
